--- a/capiq_data/in_process_data/IQ270071.xlsx
+++ b/capiq_data/in_process_data/IQ270071.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502652B4-C8C0-4640-AB6F-01C7D475EFFF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D731D9-1647-4920-AF46-8E0A94F329B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"7aef3540-45c1-4e3d-868a-c4a1a6e8fbd2"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"fc29c410-f9bc-45c9-91af-63ecc4036c87"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>96.501999999999995</v>
+        <v>25.937999999999999</v>
       </c>
       <c r="D2">
-        <v>1582.135</v>
+        <v>466.27800000000002</v>
       </c>
       <c r="E2">
-        <v>1003.884</v>
+        <v>347.11399999999998</v>
       </c>
       <c r="F2">
-        <v>195.55199999999999</v>
+        <v>67.882000000000005</v>
       </c>
       <c r="G2">
-        <v>2140.355</v>
+        <v>522.78499999999997</v>
       </c>
       <c r="H2">
-        <v>2679.1790000000001</v>
+        <v>661.74</v>
       </c>
       <c r="I2">
-        <v>652.16099999999994</v>
+        <v>229.53399999999999</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>4.6710000000000003</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,330 +892,330 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>861.97799999999995</v>
+        <v>299.95600000000002</v>
       </c>
       <c r="O2">
-        <v>931.02499999999998</v>
+        <v>299.95600000000002</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>4.6710000000000003</v>
       </c>
       <c r="Q2">
-        <v>27.239000000000001</v>
+        <v>26.007000000000001</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>12880</v>
+        <v>7611</v>
       </c>
       <c r="T2">
-        <v>1748.154</v>
+        <v>361.78399999999999</v>
       </c>
       <c r="U2">
-        <v>1084.4649999999999</v>
+        <v>169.005</v>
       </c>
       <c r="V2">
-        <v>134.83099999999999</v>
+        <v>42.305999999999997</v>
       </c>
       <c r="W2">
-        <v>-42.475000000000001</v>
+        <v>-3.601</v>
       </c>
       <c r="X2">
-        <v>-98.325000000000003</v>
+        <v>-5.0839999999999996</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>8.1000000000000003E-2</v>
+        <v>-1.7529999999999999</v>
       </c>
       <c r="AA2">
-        <v>96.501999999999995</v>
+        <v>25.937999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>91.231999999999999</v>
+        <v>21.158000000000001</v>
       </c>
       <c r="D3">
-        <v>1460.848</v>
+        <v>457.62</v>
       </c>
       <c r="E3">
-        <v>1006.98</v>
+        <v>308.44299999999998</v>
       </c>
       <c r="F3">
-        <v>194.71899999999999</v>
+        <v>57.195</v>
       </c>
       <c r="G3">
-        <v>2280.8249999999998</v>
+        <v>546.33199999999999</v>
       </c>
       <c r="H3">
-        <v>2836.732</v>
+        <v>687.87300000000005</v>
       </c>
       <c r="I3">
-        <v>687.98800000000006</v>
+        <v>213.26599999999999</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>3.4279999999999999</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>-0.96</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>914.98500000000001</v>
+        <v>294.935</v>
       </c>
       <c r="O3">
-        <v>987.61199999999997</v>
+        <v>294.935</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>3.4279999999999999</v>
       </c>
       <c r="Q3">
-        <v>154.006</v>
+        <v>51.914999999999999</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>1849.12</v>
+        <v>392.93799999999999</v>
       </c>
       <c r="U3">
-        <v>1238.471</v>
+        <v>220.92</v>
       </c>
       <c r="V3">
-        <v>177.833</v>
+        <v>62.707999999999998</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>-9.5340000000000007</v>
+        <v>0.94799999999999995</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>-8.8999999999999996E-2</v>
+        <v>1.5780000000000001</v>
       </c>
       <c r="AA3">
-        <v>91.231999999999999</v>
+        <v>21.158000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>95</v>
+        <v>21.599</v>
       </c>
       <c r="D4">
-        <v>1581.3679999999999</v>
+        <v>445.51299999999998</v>
       </c>
       <c r="E4">
-        <v>1028.0150000000001</v>
+        <v>288.46699999999998</v>
       </c>
       <c r="F4">
-        <v>202.09299999999999</v>
+        <v>59.051000000000002</v>
       </c>
       <c r="G4">
-        <v>2313.0419999999999</v>
+        <v>562.95399999999995</v>
       </c>
       <c r="H4">
-        <v>2878.0039999999999</v>
+        <v>712.20799999999997</v>
       </c>
       <c r="I4">
-        <v>688.85400000000004</v>
+        <v>214.22900000000001</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>3.0840000000000001</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>-0.34899999999999998</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>921.52499999999998</v>
+        <v>302.21899999999999</v>
       </c>
       <c r="O4">
-        <v>998.85400000000004</v>
+        <v>302.21899999999999</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>3.0840000000000001</v>
       </c>
       <c r="Q4">
-        <v>-12.641</v>
+        <v>31.222999999999999</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>1879.15</v>
+        <v>409.98899999999998</v>
       </c>
       <c r="U4">
-        <v>1225.83</v>
+        <v>252.143</v>
       </c>
       <c r="V4">
-        <v>78.057000000000002</v>
+        <v>55.18</v>
       </c>
       <c r="W4">
-        <v>-53.014000000000003</v>
+        <v>-5.2469999999999999</v>
       </c>
       <c r="X4">
-        <v>-80.597999999999999</v>
+        <v>-7.6580000000000004</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>-0.44900000000000001</v>
+        <v>-1.6E-2</v>
       </c>
       <c r="AA4">
-        <v>95</v>
+        <v>21.599</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>106.604</v>
+        <v>27.369</v>
       </c>
       <c r="D5">
-        <v>1606.3679999999999</v>
+        <v>489.279</v>
       </c>
       <c r="E5">
-        <v>997.70500000000004</v>
+        <v>314.69</v>
       </c>
       <c r="F5">
-        <v>213.982</v>
+        <v>66.025000000000006</v>
       </c>
       <c r="G5">
-        <v>2312.6129999999998</v>
+        <v>590.52300000000002</v>
       </c>
       <c r="H5">
-        <v>2883.1689999999999</v>
+        <v>742.84100000000001</v>
       </c>
       <c r="I5">
-        <v>655.09199999999998</v>
+        <v>225.71700000000001</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1.8480000000000001</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>-1.163</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>865.50099999999998</v>
+        <v>314.97000000000003</v>
       </c>
       <c r="O5">
-        <v>921.11099999999999</v>
+        <v>314.97000000000003</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1.8480000000000001</v>
       </c>
       <c r="Q5">
-        <v>34.984000000000002</v>
+        <v>4.04</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>1962.058</v>
+        <v>427.87099999999998</v>
       </c>
       <c r="U5">
-        <v>1260.8140000000001</v>
+        <v>256.18299999999999</v>
       </c>
       <c r="V5">
-        <v>93.305000000000007</v>
+        <v>19.834</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>-2E-3</v>
       </c>
       <c r="X5">
-        <v>-12.617000000000001</v>
+        <v>-10.416</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="AA5">
-        <v>106.604</v>
+        <v>27.369</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>92.843000000000004</v>
+        <v>27.117000000000001</v>
       </c>
       <c r="D6">
-        <v>1501.914</v>
+        <v>490.65800000000002</v>
       </c>
       <c r="E6">
-        <v>934.75199999999995</v>
+        <v>283.41399999999999</v>
       </c>
       <c r="F6">
-        <v>207.66</v>
+        <v>62.426000000000002</v>
       </c>
       <c r="G6">
-        <v>2286.8829999999998</v>
+        <v>511.25700000000001</v>
       </c>
       <c r="H6">
-        <v>2866.8270000000002</v>
+        <v>688.43700000000001</v>
       </c>
       <c r="I6">
-        <v>606.62800000000004</v>
+        <v>195.82599999999999</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1.706</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,81 +1224,81 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>796.14499999999998</v>
+        <v>273.81400000000002</v>
       </c>
       <c r="O6">
-        <v>856.75800000000004</v>
+        <v>273.81400000000002</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>1.706</v>
       </c>
       <c r="Q6">
-        <v>33.542000000000002</v>
+        <v>-37.506</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>13590</v>
+        <v>7590</v>
       </c>
       <c r="T6">
-        <v>2010.069</v>
+        <v>414.62299999999999</v>
       </c>
       <c r="U6">
-        <v>1294.356</v>
+        <v>218.67699999999999</v>
       </c>
       <c r="V6">
-        <v>107.93600000000001</v>
+        <v>29.891999999999999</v>
       </c>
       <c r="W6">
-        <v>-52.997</v>
+        <v>-5.16</v>
       </c>
       <c r="X6">
-        <v>-54.341999999999999</v>
+        <v>-40.950000000000003</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>-8.0000000000000002E-3</v>
       </c>
       <c r="AA6">
-        <v>92.843000000000004</v>
+        <v>27.117000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>76.706999999999994</v>
+        <v>22.23</v>
       </c>
       <c r="D7">
-        <v>1411.37</v>
+        <v>449.54</v>
       </c>
       <c r="E7">
-        <v>934.86599999999999</v>
+        <v>287.68700000000001</v>
       </c>
       <c r="F7">
-        <v>179.26300000000001</v>
+        <v>56.152000000000001</v>
       </c>
       <c r="G7">
-        <v>2410.1979999999999</v>
+        <v>560.75699999999995</v>
       </c>
       <c r="H7">
-        <v>3001.223</v>
+        <v>734.577</v>
       </c>
       <c r="I7">
-        <v>629.50300000000004</v>
+        <v>210.673</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>2.0619999999999998</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1187,164 +1307,164 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>828.25699999999995</v>
+        <v>292.64499999999998</v>
       </c>
       <c r="O7">
-        <v>899.18899999999996</v>
+        <v>292.64499999999998</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>2.0619999999999998</v>
       </c>
       <c r="Q7">
-        <v>118.559</v>
+        <v>44.223999999999997</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>2102.0340000000001</v>
+        <v>441.93200000000002</v>
       </c>
       <c r="U7">
-        <v>1412.915</v>
+        <v>262.90100000000001</v>
       </c>
       <c r="V7">
-        <v>147.39699999999999</v>
+        <v>43.65</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>-5.5190000000000001</v>
+        <v>2.3839999999999999</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>-15.78</v>
+        <v>-2.1999999999999999E-2</v>
       </c>
       <c r="AA7">
-        <v>76.706999999999994</v>
+        <v>22.23</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>83.954999999999998</v>
+        <v>23.684000000000001</v>
       </c>
       <c r="D8">
-        <v>1504.952</v>
+        <v>535.75599999999997</v>
       </c>
       <c r="E8">
-        <v>983.13099999999997</v>
+        <v>336.733</v>
       </c>
       <c r="F8">
-        <v>182.87299999999999</v>
+        <v>62.271000000000001</v>
       </c>
       <c r="G8">
-        <v>2405.3969999999999</v>
+        <v>623.96799999999996</v>
       </c>
       <c r="H8">
-        <v>2992.3719999999998</v>
+        <v>801.68200000000002</v>
       </c>
       <c r="I8">
-        <v>672.83600000000001</v>
+        <v>248.64500000000001</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>-1.726</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>882.89800000000002</v>
+        <v>339.11599999999999</v>
       </c>
       <c r="O8">
-        <v>942.31500000000005</v>
+        <v>339.11599999999999</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="Q8">
-        <v>-48.667999999999999</v>
+        <v>10.324999999999999</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>2050.0569999999998</v>
+        <v>462.56599999999997</v>
       </c>
       <c r="U8">
-        <v>1364.2470000000001</v>
+        <v>273.226</v>
       </c>
       <c r="V8">
-        <v>92.813999999999993</v>
+        <v>23.263999999999999</v>
       </c>
       <c r="W8">
-        <v>-59.357999999999997</v>
+        <v>-6.2350000000000003</v>
       </c>
       <c r="X8">
-        <v>-135.471</v>
+        <v>-9.7230000000000008</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>15.878</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="AA8">
-        <v>83.954999999999998</v>
+        <v>23.684000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>88.49</v>
+        <v>30.619</v>
       </c>
       <c r="D9">
-        <v>1531.664</v>
+        <v>620.39400000000001</v>
       </c>
       <c r="E9">
-        <v>1015.35</v>
+        <v>351.63900000000001</v>
       </c>
       <c r="F9">
-        <v>190.935</v>
+        <v>75.486999999999995</v>
       </c>
       <c r="G9">
-        <v>2439.9949999999999</v>
+        <v>651.27700000000004</v>
       </c>
       <c r="H9">
-        <v>3032.1869999999999</v>
+        <v>831.21500000000003</v>
       </c>
       <c r="I9">
-        <v>667.39499999999998</v>
+        <v>246.41499999999999</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.833</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,81 +1473,81 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>866.2</v>
+        <v>338.56299999999999</v>
       </c>
       <c r="O9">
-        <v>936.48800000000006</v>
+        <v>338.56299999999999</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>1.833</v>
       </c>
       <c r="Q9">
-        <v>3.395</v>
+        <v>14.106</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>2095.6990000000001</v>
+        <v>492.65199999999999</v>
       </c>
       <c r="U9">
-        <v>1367.6420000000001</v>
+        <v>287.33199999999999</v>
       </c>
       <c r="V9">
-        <v>69.165999999999997</v>
+        <v>22.899000000000001</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>-63.746000000000002</v>
+        <v>1.931</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>0.113</v>
+        <v>-2.7E-2</v>
       </c>
       <c r="AA9">
-        <v>88.49</v>
+        <v>30.619</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>84.207999999999998</v>
+        <v>35.996000000000002</v>
       </c>
       <c r="D10">
-        <v>1544.229</v>
+        <v>691.21299999999997</v>
       </c>
       <c r="E10">
-        <v>1031.376</v>
+        <v>385.86399999999998</v>
       </c>
       <c r="F10">
-        <v>188.667</v>
+        <v>87.718000000000004</v>
       </c>
       <c r="G10">
-        <v>2357.5990000000002</v>
+        <v>605.48599999999999</v>
       </c>
       <c r="H10">
-        <v>2954.125</v>
+        <v>879.94799999999998</v>
       </c>
       <c r="I10">
-        <v>641.59299999999996</v>
+        <v>248.30199999999999</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.319</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1436,330 +1556,330 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>842.55799999999999</v>
+        <v>354.56599999999997</v>
       </c>
       <c r="O10">
-        <v>921.55499999999995</v>
+        <v>354.56599999999997</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>1.319</v>
       </c>
       <c r="Q10">
-        <v>-106.8</v>
+        <v>-75.472999999999999</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>13700</v>
+        <v>8000</v>
       </c>
       <c r="T10">
-        <v>2032.57</v>
+        <v>525.38199999999995</v>
       </c>
       <c r="U10">
-        <v>1260.8420000000001</v>
+        <v>211.85900000000001</v>
       </c>
       <c r="V10">
-        <v>60.749000000000002</v>
+        <v>26.68</v>
       </c>
       <c r="W10">
-        <v>-57.905000000000001</v>
+        <v>-6.25</v>
       </c>
       <c r="X10">
-        <v>-158.31100000000001</v>
+        <v>-7.3070000000000004</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>0.13100000000000001</v>
+        <v>-0.01</v>
       </c>
       <c r="AA10">
-        <v>84.207999999999998</v>
+        <v>35.996000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>80.314999999999998</v>
+        <v>25.119</v>
       </c>
       <c r="D11">
-        <v>1413.2080000000001</v>
+        <v>556.346</v>
       </c>
       <c r="E11">
-        <v>982.11900000000003</v>
+        <v>358.64499999999998</v>
       </c>
       <c r="F11">
-        <v>175.39699999999999</v>
+        <v>65.491</v>
       </c>
       <c r="G11">
-        <v>2430.826</v>
+        <v>641.423</v>
       </c>
       <c r="H11">
-        <v>3017.799</v>
+        <v>912.66800000000001</v>
       </c>
       <c r="I11">
-        <v>629.19000000000005</v>
+        <v>257.964</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>-0.84899999999999998</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>831.68</v>
+        <v>360.36599999999999</v>
       </c>
       <c r="O11">
-        <v>913.178</v>
+        <v>360.36599999999999</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="Q11">
-        <v>133.845</v>
+        <v>60.386000000000003</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>2104.6210000000001</v>
+        <v>552.30200000000002</v>
       </c>
       <c r="U11">
-        <v>1394.6869999999999</v>
+        <v>272.245</v>
       </c>
       <c r="V11">
-        <v>165.26400000000001</v>
+        <v>63.978000000000002</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>-13.382999999999999</v>
+        <v>-1.0309999999999999</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>3.7999999999999999E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="AA11">
-        <v>80.314999999999998</v>
+        <v>25.119</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>92.314999999999998</v>
+        <v>27.91</v>
       </c>
       <c r="D12">
-        <v>1503.2239999999999</v>
+        <v>625.71299999999997</v>
       </c>
       <c r="E12">
-        <v>1018.337</v>
+        <v>384.33199999999999</v>
       </c>
       <c r="F12">
-        <v>191.59100000000001</v>
+        <v>68.784999999999997</v>
       </c>
       <c r="G12">
-        <v>2475.7779999999998</v>
+        <v>687.67600000000004</v>
       </c>
       <c r="H12">
-        <v>3063.665</v>
+        <v>959.00800000000004</v>
       </c>
       <c r="I12">
-        <v>645.19600000000003</v>
+        <v>268.75400000000002</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.496</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>-3.5000000000000003E-2</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>860.21299999999997</v>
+        <v>381.90699999999998</v>
       </c>
       <c r="O12">
-        <v>941.72299999999996</v>
+        <v>381.90699999999998</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.496</v>
       </c>
       <c r="Q12">
-        <v>-108.578</v>
+        <v>12.17</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>2121.942</v>
+        <v>577.101</v>
       </c>
       <c r="U12">
-        <v>1286.1089999999999</v>
+        <v>284.41500000000002</v>
       </c>
       <c r="V12">
-        <v>84.025999999999996</v>
+        <v>20.033000000000001</v>
       </c>
       <c r="W12">
-        <v>-61.899000000000001</v>
+        <v>-8.3680000000000003</v>
       </c>
       <c r="X12">
-        <v>-75.367000000000004</v>
+        <v>-8.5909999999999993</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>-89.802999999999997</v>
+        <v>-3.1E-2</v>
       </c>
       <c r="AA12">
-        <v>92.314999999999998</v>
+        <v>27.91</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>92.4</v>
+        <v>32.558</v>
       </c>
       <c r="D13">
-        <v>1537.9659999999999</v>
+        <v>711.46900000000005</v>
       </c>
       <c r="E13">
-        <v>1027.5719999999999</v>
+        <v>449.32299999999998</v>
       </c>
       <c r="F13">
-        <v>198.74700000000001</v>
+        <v>81.055000000000007</v>
       </c>
       <c r="G13">
-        <v>2498.2109999999998</v>
+        <v>770.75300000000004</v>
       </c>
       <c r="H13">
-        <v>3098.5630000000001</v>
+        <v>1040.807</v>
       </c>
       <c r="I13">
-        <v>656.67399999999998</v>
+        <v>314.71100000000001</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>-0.44</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>863.97900000000004</v>
+        <v>427.42099999999999</v>
       </c>
       <c r="O13">
-        <v>917.83299999999997</v>
+        <v>427.42099999999999</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="Q13">
-        <v>24.221</v>
+        <v>8.58</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>2180.73</v>
+        <v>613.38599999999997</v>
       </c>
       <c r="U13">
-        <v>1310.33</v>
+        <v>292.995</v>
       </c>
       <c r="V13">
-        <v>96.293000000000006</v>
+        <v>11.779</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>-53.470999999999997</v>
+        <v>-0.35799999999999998</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>-9.9250000000000007</v>
+        <v>-4.5999999999999999E-2</v>
       </c>
       <c r="AA13">
-        <v>92.4</v>
+        <v>32.558</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>83.495999999999995</v>
+        <v>36.365000000000002</v>
       </c>
       <c r="D14">
-        <v>1625.8589999999999</v>
+        <v>731.41300000000001</v>
       </c>
       <c r="E14">
-        <v>1073.5</v>
+        <v>452.55099999999999</v>
       </c>
       <c r="F14">
-        <v>186.08</v>
+        <v>89.603999999999999</v>
       </c>
       <c r="G14">
-        <v>2415.2689999999998</v>
+        <v>769.99900000000002</v>
       </c>
       <c r="H14">
-        <v>3014.8119999999999</v>
+        <v>1044.078</v>
       </c>
       <c r="I14">
-        <v>648.15599999999995</v>
+        <v>301.12200000000001</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.217</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,75 +1888,75 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>870.2</v>
+        <v>386.38499999999999</v>
       </c>
       <c r="O14">
-        <v>928.48099999999999</v>
+        <v>395.35300000000001</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.217</v>
       </c>
       <c r="Q14">
-        <v>-62.677999999999997</v>
+        <v>2.8370000000000002</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>13910</v>
+        <v>8600</v>
       </c>
       <c r="T14">
-        <v>2086.3310000000001</v>
+        <v>648.72500000000002</v>
       </c>
       <c r="U14">
-        <v>1247.652</v>
+        <v>295.83199999999999</v>
       </c>
       <c r="V14">
-        <v>61.953000000000003</v>
+        <v>18.545000000000002</v>
       </c>
       <c r="W14">
-        <v>-61.393000000000001</v>
+        <v>-8.4039999999999999</v>
       </c>
       <c r="X14">
-        <v>-189.80699999999999</v>
+        <v>-8.0440000000000005</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>73.489000000000004</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="AA14">
-        <v>83.495999999999995</v>
+        <v>36.365000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>83.823999999999998</v>
+        <v>31.844000000000001</v>
       </c>
       <c r="D15">
-        <v>1491.645</v>
+        <v>686.85</v>
       </c>
       <c r="E15">
-        <v>1062.924</v>
+        <v>459.76900000000001</v>
       </c>
       <c r="F15">
-        <v>183.482</v>
+        <v>78.703999999999994</v>
       </c>
       <c r="G15">
-        <v>2334.9929999999999</v>
+        <v>843.57799999999997</v>
       </c>
       <c r="H15">
-        <v>2925.5039999999999</v>
+        <v>1122.0519999999999</v>
       </c>
       <c r="I15">
-        <v>677.58199999999999</v>
+        <v>330.03300000000002</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1845,81 +1965,81 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>-0.215</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>901.49300000000005</v>
+        <v>422.74</v>
       </c>
       <c r="O15">
-        <v>965.49</v>
+        <v>436.41</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>-116.60599999999999</v>
+        <v>68.494</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>1960.0139999999999</v>
+        <v>685.64200000000005</v>
       </c>
       <c r="U15">
-        <v>1131.046</v>
+        <v>364.32600000000002</v>
       </c>
       <c r="V15">
-        <v>173.857</v>
+        <v>75.974999999999994</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>-218.429</v>
+        <v>-0.32500000000000001</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>-60.154000000000003</v>
+        <v>3.1E-2</v>
       </c>
       <c r="AA15">
-        <v>83.823999999999998</v>
+        <v>31.844000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>91.302000000000007</v>
+        <v>37.612000000000002</v>
       </c>
       <c r="D16">
-        <v>1599.1410000000001</v>
+        <v>798.66600000000005</v>
       </c>
       <c r="E16">
-        <v>1150.5309999999999</v>
+        <v>526.41800000000001</v>
       </c>
       <c r="F16">
-        <v>198.54599999999999</v>
+        <v>91.677000000000007</v>
       </c>
       <c r="G16">
-        <v>2310.4699999999998</v>
+        <v>927.78899999999999</v>
       </c>
       <c r="H16">
-        <v>2929.94</v>
+        <v>1206.5820000000001</v>
       </c>
       <c r="I16">
-        <v>717.14099999999996</v>
+        <v>370.11099999999999</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1934,75 +2054,75 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>962.23099999999999</v>
+        <v>471.42599999999999</v>
       </c>
       <c r="O16">
-        <v>1032.8030000000001</v>
+        <v>488.92599999999999</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>-160.48500000000001</v>
+        <v>8.1329999999999991</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>1897.1369999999999</v>
+        <v>717.65599999999995</v>
       </c>
       <c r="U16">
-        <v>970.56100000000004</v>
+        <v>372.459</v>
       </c>
       <c r="V16">
-        <v>44.886000000000003</v>
+        <v>33.188000000000002</v>
       </c>
       <c r="W16">
-        <v>-62.807000000000002</v>
+        <v>-11.641999999999999</v>
       </c>
       <c r="X16">
-        <v>-171.578</v>
+        <v>-11.823</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>0.34200000000000003</v>
+        <v>-0.03</v>
       </c>
       <c r="AA16">
-        <v>91.302000000000007</v>
+        <v>37.612000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>102.381</v>
+        <v>43.106999999999999</v>
       </c>
       <c r="D17">
-        <v>1705.105</v>
+        <v>897.18799999999999</v>
       </c>
       <c r="E17">
-        <v>1183.1669999999999</v>
+        <v>596.77099999999996</v>
       </c>
       <c r="F17">
-        <v>214.31200000000001</v>
+        <v>102.90300000000001</v>
       </c>
       <c r="G17">
-        <v>2317.9720000000002</v>
+        <v>1006.798</v>
       </c>
       <c r="H17">
-        <v>2926.0529999999999</v>
+        <v>1307.3620000000001</v>
       </c>
       <c r="I17">
-        <v>746.19299999999998</v>
+        <v>406.60599999999999</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -2017,81 +2137,81 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>962.798</v>
+        <v>510.30099999999999</v>
       </c>
       <c r="O17">
-        <v>1022.123</v>
+        <v>539.68899999999996</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>19.919</v>
+        <v>5.1619999999999999</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>1903.93</v>
+        <v>767.673</v>
       </c>
       <c r="U17">
-        <v>990.48</v>
+        <v>377.62099999999998</v>
       </c>
       <c r="V17">
-        <v>86.691000000000003</v>
+        <v>33.335999999999999</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17">
-        <v>-88.545000000000002</v>
+        <v>-3.2000000000000001E-2</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>45.832000000000001</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="AA17">
-        <v>102.381</v>
+        <v>43.106999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>99.381</v>
+        <v>43.563000000000002</v>
       </c>
       <c r="D18">
-        <v>1768.83</v>
+        <v>934.79499999999996</v>
       </c>
       <c r="E18">
-        <v>1236.0419999999999</v>
+        <v>614.04399999999998</v>
       </c>
       <c r="F18">
-        <v>216.94800000000001</v>
+        <v>101.96899999999999</v>
       </c>
       <c r="G18">
-        <v>2289.25</v>
+        <v>1045.8599999999999</v>
       </c>
       <c r="H18">
-        <v>2890.9050000000002</v>
+        <v>1364.0530000000001</v>
       </c>
       <c r="I18">
-        <v>770.23800000000006</v>
+        <v>410.25099999999998</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,75 +2220,75 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>983.78300000000002</v>
+        <v>524.31600000000003</v>
       </c>
       <c r="O18">
-        <v>1019.297</v>
+        <v>549.17700000000002</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="Q18">
-        <v>-63.372999999999998</v>
+        <v>31.361999999999998</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>14670</v>
+        <v>9400</v>
       </c>
       <c r="T18">
-        <v>1871.6079999999999</v>
+        <v>814.87599999999998</v>
       </c>
       <c r="U18">
-        <v>927.10699999999997</v>
+        <v>408.983</v>
       </c>
       <c r="V18">
-        <v>89.531999999999996</v>
+        <v>50.16</v>
       </c>
       <c r="W18">
-        <v>-61.826999999999998</v>
+        <v>-11.726000000000001</v>
       </c>
       <c r="X18">
-        <v>-126.982</v>
+        <v>-9.5820000000000007</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>-0.02</v>
+        <v>-3.1E-2</v>
       </c>
       <c r="AA18">
-        <v>99.381</v>
+        <v>43.563000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>106.70399999999999</v>
+        <v>30.87</v>
       </c>
       <c r="D19">
-        <v>1677.5260000000001</v>
+        <v>825.16399999999999</v>
       </c>
       <c r="E19">
-        <v>1253.6389999999999</v>
+        <v>568.46799999999996</v>
       </c>
       <c r="F19">
-        <v>225.22</v>
+        <v>84.045000000000002</v>
       </c>
       <c r="G19">
-        <v>2352.16</v>
+        <v>1047.0820000000001</v>
       </c>
       <c r="H19">
-        <v>2943.7779999999998</v>
+        <v>1385.3879999999999</v>
       </c>
       <c r="I19">
-        <v>749.24599999999998</v>
+        <v>402.21</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -2177,81 +2297,81 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>-2.173</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>979.21900000000005</v>
+        <v>518.84500000000003</v>
       </c>
       <c r="O19">
-        <v>1016.247</v>
+        <v>545.13599999999997</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>106.03700000000001</v>
+        <v>48.406999999999996</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>1927.5309999999999</v>
+        <v>840.25199999999995</v>
       </c>
       <c r="U19">
-        <v>1033.144</v>
+        <v>457.39</v>
       </c>
       <c r="V19">
-        <v>134.39400000000001</v>
+        <v>94.135000000000005</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19">
-        <v>-41.697000000000003</v>
+        <v>-12.75</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>40.274000000000001</v>
+        <v>-0.64300000000000002</v>
       </c>
       <c r="AA19">
-        <v>106.70399999999999</v>
+        <v>30.87</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>117.76</v>
+        <v>36.698</v>
       </c>
       <c r="D20">
-        <v>1691.5530000000001</v>
+        <v>927.99900000000002</v>
       </c>
       <c r="E20">
-        <v>1194.18</v>
+        <v>615.63699999999994</v>
       </c>
       <c r="F20">
-        <v>240.10499999999999</v>
+        <v>91.578999999999994</v>
       </c>
       <c r="G20">
-        <v>2334.7550000000001</v>
+        <v>1079.06</v>
       </c>
       <c r="H20">
-        <v>2932.375</v>
+        <v>1417.249</v>
       </c>
       <c r="I20">
-        <v>738.32299999999998</v>
+        <v>422.93900000000002</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -2266,75 +2386,75 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>993.68100000000004</v>
+        <v>549.572</v>
       </c>
       <c r="O20">
-        <v>1042.6420000000001</v>
+        <v>575.63400000000001</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>-47.417000000000002</v>
+        <v>-18.516999999999999</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>1889.7329999999999</v>
+        <v>841.61500000000001</v>
       </c>
       <c r="U20">
-        <v>985.72699999999998</v>
+        <v>438.87299999999999</v>
       </c>
       <c r="V20">
-        <v>181.72800000000001</v>
+        <v>42.206000000000003</v>
       </c>
       <c r="W20">
-        <v>-68.781000000000006</v>
+        <v>-16.055</v>
       </c>
       <c r="X20">
-        <v>-171.505</v>
+        <v>-38.051000000000002</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>-46.985999999999997</v>
+        <v>0.63100000000000001</v>
       </c>
       <c r="AA20">
-        <v>117.76</v>
+        <v>36.698</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>118.31</v>
+        <v>48.404000000000003</v>
       </c>
       <c r="D21">
-        <v>1651.3320000000001</v>
+        <v>1046.442</v>
       </c>
       <c r="E21">
-        <v>1166.3</v>
+        <v>714.11199999999997</v>
       </c>
       <c r="F21">
-        <v>248.66800000000001</v>
+        <v>112.482</v>
       </c>
       <c r="G21">
-        <v>2235.46</v>
+        <v>1191.0909999999999</v>
       </c>
       <c r="H21">
-        <v>2827.018</v>
+        <v>1541.873</v>
       </c>
       <c r="I21">
-        <v>718.55499999999995</v>
+        <v>479.298</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -2349,75 +2469,75 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>955.202</v>
+        <v>615.25199999999995</v>
       </c>
       <c r="O21">
-        <v>984.82600000000002</v>
+        <v>648.56299999999999</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>-17.044</v>
+        <v>22.57</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>1842.192</v>
+        <v>893.31</v>
       </c>
       <c r="U21">
-        <v>968.68299999999999</v>
+        <v>461.44299999999998</v>
       </c>
       <c r="V21">
-        <v>132.67599999999999</v>
+        <v>50.991999999999997</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21">
-        <v>-155.364</v>
+        <v>-7.0439999999999996</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>38.787999999999997</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AA21">
-        <v>118.31</v>
+        <v>48.404000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>114.449</v>
+        <v>74.287999999999997</v>
       </c>
       <c r="D22">
-        <v>1596.221</v>
+        <v>1102.1759999999999</v>
       </c>
       <c r="E22">
-        <v>1112.26</v>
+        <v>709.33100000000002</v>
       </c>
       <c r="F22">
-        <v>227.803</v>
+        <v>120.274</v>
       </c>
       <c r="G22">
-        <v>1976.509</v>
+        <v>1201.961</v>
       </c>
       <c r="H22">
-        <v>2565.5770000000002</v>
+        <v>1566.0440000000001</v>
       </c>
       <c r="I22">
-        <v>645.30399999999997</v>
+        <v>479.54599999999999</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -2432,75 +2552,75 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>861.37300000000005</v>
+        <v>612.50099999999998</v>
       </c>
       <c r="O22">
-        <v>870.90099999999995</v>
+        <v>625.779</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>-160.887</v>
+        <v>2.4510000000000001</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>15397</v>
+        <v>10600</v>
       </c>
       <c r="T22">
-        <v>1694.6759999999999</v>
+        <v>940.26499999999999</v>
       </c>
       <c r="U22">
-        <v>807.79600000000005</v>
+        <v>463.89400000000001</v>
       </c>
       <c r="V22">
-        <v>115.914</v>
+        <v>79.61</v>
       </c>
       <c r="W22">
-        <v>-66.891999999999996</v>
+        <v>-16</v>
       </c>
       <c r="X22">
-        <v>-266.40600000000001</v>
+        <v>-48.844999999999999</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>8.218</v>
+        <v>-2.5000000000000001E-2</v>
       </c>
       <c r="AA22">
-        <v>114.449</v>
+        <v>74.287999999999997</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>96.584000000000003</v>
+        <v>52.351999999999997</v>
       </c>
       <c r="D23">
-        <v>1418.472</v>
+        <v>1026.537</v>
       </c>
       <c r="E23">
-        <v>1010.667</v>
+        <v>689.69299999999998</v>
       </c>
       <c r="F23">
-        <v>206.85499999999999</v>
+        <v>121.5</v>
       </c>
       <c r="G23">
-        <v>2087.48</v>
+        <v>1277.7760000000001</v>
       </c>
       <c r="H23">
-        <v>2679.7429999999999</v>
+        <v>1656.21</v>
       </c>
       <c r="I23">
-        <v>623.69899999999996</v>
+        <v>494.85899999999998</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -2515,75 +2635,75 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>854.41499999999996</v>
+        <v>645.59799999999996</v>
       </c>
       <c r="O23">
-        <v>897.23199999999997</v>
+        <v>665.81700000000001</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>206.12100000000001</v>
+        <v>103.794</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>1782.511</v>
+        <v>990.39300000000003</v>
       </c>
       <c r="U23">
-        <v>1013.917</v>
+        <v>567.68799999999999</v>
       </c>
       <c r="V23">
-        <v>235.953</v>
+        <v>138.13300000000001</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>-28.657</v>
+        <v>-15.417999999999999</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>-8.0000000000000002E-3</v>
       </c>
       <c r="AA23">
-        <v>96.584000000000003</v>
+        <v>52.351999999999997</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>116.05200000000001</v>
+        <v>56.329000000000001</v>
       </c>
       <c r="D24">
-        <v>1475.164</v>
+        <v>1131.441</v>
       </c>
       <c r="E24">
-        <v>1051.373</v>
+        <v>751.92899999999997</v>
       </c>
       <c r="F24">
-        <v>232.506</v>
+        <v>127.745</v>
       </c>
       <c r="G24">
-        <v>2126.8449999999998</v>
+        <v>1241.9079999999999</v>
       </c>
       <c r="H24">
-        <v>2707.1379999999999</v>
+        <v>1715.55</v>
       </c>
       <c r="I24">
-        <v>642.05600000000004</v>
+        <v>529.51800000000003</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -2598,75 +2718,75 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>894.02599999999995</v>
+        <v>686.78800000000001</v>
       </c>
       <c r="O24">
-        <v>927.63300000000004</v>
+        <v>715.80700000000002</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>-33.652999999999999</v>
+        <v>-112.994</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>1779.5050000000001</v>
+        <v>999.74300000000005</v>
       </c>
       <c r="U24">
-        <v>980.26400000000001</v>
+        <v>454.69400000000002</v>
       </c>
       <c r="V24">
-        <v>105.184</v>
+        <v>55.578000000000003</v>
       </c>
       <c r="W24">
-        <v>-73</v>
+        <v>-23.574999999999999</v>
       </c>
       <c r="X24">
-        <v>-120.627</v>
+        <v>-74.757999999999996</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>-0.27500000000000002</v>
       </c>
       <c r="AA24">
-        <v>116.05200000000001</v>
+        <v>56.329000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>107.581</v>
+        <v>63.802999999999997</v>
       </c>
       <c r="D25">
-        <v>1562.394</v>
+        <v>1231.6600000000001</v>
       </c>
       <c r="E25">
-        <v>1108.5160000000001</v>
+        <v>812.22400000000005</v>
       </c>
       <c r="F25">
-        <v>226.964</v>
+        <v>141.46600000000001</v>
       </c>
       <c r="G25">
-        <v>2235.6860000000001</v>
+        <v>1335.0170000000001</v>
       </c>
       <c r="H25">
-        <v>2813.797</v>
+        <v>1811.664</v>
       </c>
       <c r="I25">
-        <v>698.62</v>
+        <v>562.59199999999998</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -2681,75 +2801,75 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>927.60400000000004</v>
+        <v>734.28399999999999</v>
       </c>
       <c r="O25">
-        <v>959.86400000000003</v>
+        <v>768.71400000000006</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>62.436</v>
+        <v>44.835000000000001</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>1853.933</v>
+        <v>1042.95</v>
       </c>
       <c r="U25">
-        <v>1042.7</v>
+        <v>499.529</v>
       </c>
       <c r="V25">
-        <v>115.79300000000001</v>
+        <v>84.677999999999997</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25">
-        <v>-44.167999999999999</v>
+        <v>-27.645</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="AA25">
-        <v>107.581</v>
+        <v>63.802999999999997</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>110.59</v>
+        <v>62.61</v>
       </c>
       <c r="D26">
-        <v>1642.0070000000001</v>
+        <v>1244.3489999999999</v>
       </c>
       <c r="E26">
-        <v>1190.1300000000001</v>
+        <v>811.48599999999999</v>
       </c>
       <c r="F26">
-        <v>231.26400000000001</v>
+        <v>136.798</v>
       </c>
       <c r="G26">
-        <v>2218.5790000000002</v>
+        <v>1341.837</v>
       </c>
       <c r="H26">
-        <v>2790.8710000000001</v>
+        <v>1822.338</v>
       </c>
       <c r="I26">
-        <v>726.57100000000003</v>
+        <v>544.02800000000002</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -2764,81 +2884,81 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>929.93100000000004</v>
+        <v>709.14499999999998</v>
       </c>
       <c r="O26">
-        <v>943.65800000000002</v>
+        <v>735.97199999999998</v>
       </c>
       <c r="P26">
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>-68.265000000000001</v>
+        <v>11.829000000000001</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>16000</v>
+        <v>11600</v>
       </c>
       <c r="T26">
-        <v>1847.213</v>
+        <v>1086.366</v>
       </c>
       <c r="U26">
-        <v>974.43499999999995</v>
+        <v>511.358</v>
       </c>
       <c r="V26">
-        <v>72.555000000000007</v>
+        <v>54.898000000000003</v>
       </c>
       <c r="W26">
-        <v>-72.123000000000005</v>
+        <v>-23.443999999999999</v>
       </c>
       <c r="X26">
-        <v>-105.351</v>
+        <v>-42.286000000000001</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>-3.6999999999999998E-2</v>
+        <v>-0.16600000000000001</v>
       </c>
       <c r="AA26">
-        <v>110.59</v>
+        <v>62.61</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>93.263999999999996</v>
+        <v>59.287999999999997</v>
       </c>
       <c r="D27">
-        <v>1545.1320000000001</v>
+        <v>1118.9459999999999</v>
       </c>
       <c r="E27">
-        <v>1126.4880000000001</v>
+        <v>750.93799999999999</v>
       </c>
       <c r="F27">
-        <v>206.89500000000001</v>
+        <v>134.708</v>
       </c>
       <c r="G27">
-        <v>2401.7959999999998</v>
+        <v>1351.393</v>
       </c>
       <c r="H27">
-        <v>2902.7190000000001</v>
+        <v>1836.799</v>
       </c>
       <c r="I27">
-        <v>701.12199999999996</v>
+        <v>513.59799999999996</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>0.224</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -2847,158 +2967,158 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>926.80399999999997</v>
+        <v>685.68200000000002</v>
       </c>
       <c r="O27">
-        <v>950.99900000000002</v>
+        <v>718.678</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>0.224</v>
       </c>
       <c r="Q27">
-        <v>181.608</v>
+        <v>65.457999999999998</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>1951.72</v>
+        <v>1118.1210000000001</v>
       </c>
       <c r="U27">
-        <v>1156.0429999999999</v>
+        <v>576.81600000000003</v>
       </c>
       <c r="V27">
-        <v>195.679</v>
+        <v>116.07899999999999</v>
       </c>
       <c r="W27">
         <v>0</v>
       </c>
       <c r="X27">
-        <v>-8.5429999999999993</v>
+        <v>-40.58</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="AA27">
-        <v>93.263999999999996</v>
+        <v>59.287999999999997</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>108.851</v>
+        <v>65.489000000000004</v>
       </c>
       <c r="D28">
-        <v>1672.279</v>
+        <v>1258.6179999999999</v>
       </c>
       <c r="E28">
-        <v>1215.278</v>
+        <v>829.202</v>
       </c>
       <c r="F28">
-        <v>215.941</v>
+        <v>141.43700000000001</v>
       </c>
       <c r="G28">
-        <v>2494.3159999999998</v>
+        <v>1437.761</v>
       </c>
       <c r="H28">
-        <v>3022.7559999999999</v>
+        <v>1937.261</v>
       </c>
       <c r="I28">
-        <v>774.94100000000003</v>
+        <v>583.63199999999995</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>0.21299999999999999</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>-1.7000000000000001E-2</v>
       </c>
       <c r="M28">
         <v>0</v>
       </c>
       <c r="N28">
-        <v>1007.646</v>
+        <v>763.26800000000003</v>
       </c>
       <c r="O28">
-        <v>1044.1189999999999</v>
+        <v>805.73099999999999</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>0.21299999999999999</v>
       </c>
       <c r="Q28">
-        <v>-41.133000000000003</v>
+        <v>-1.774</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>1978.6369999999999</v>
+        <v>1131.53</v>
       </c>
       <c r="U28">
-        <v>1114.9100000000001</v>
+        <v>575.04200000000003</v>
       </c>
       <c r="V28">
-        <v>81.213999999999999</v>
+        <v>86.932000000000002</v>
       </c>
       <c r="W28">
-        <v>-75.725999999999999</v>
+        <v>-29.902000000000001</v>
       </c>
       <c r="X28">
-        <v>-108.277</v>
+        <v>-68.938999999999993</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="AA28">
-        <v>108.851</v>
+        <v>65.489000000000004</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>120.26300000000001</v>
+        <v>74.319999999999993</v>
       </c>
       <c r="D29">
-        <v>1802.1659999999999</v>
+        <v>1411.0250000000001</v>
       </c>
       <c r="E29">
-        <v>1349.854</v>
+        <v>984.09199999999998</v>
       </c>
       <c r="F29">
-        <v>249.559</v>
+        <v>161.85300000000001</v>
       </c>
       <c r="G29">
-        <v>2518.9209999999998</v>
+        <v>1571.329</v>
       </c>
       <c r="H29">
-        <v>3068.8809999999999</v>
+        <v>2105.2089999999998</v>
       </c>
       <c r="I29">
-        <v>836.05499999999995</v>
+        <v>660.46</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -3007,81 +3127,81 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>-0.20300000000000001</v>
       </c>
       <c r="M29">
         <v>0</v>
       </c>
       <c r="N29">
-        <v>1076.0540000000001</v>
+        <v>841.02</v>
       </c>
       <c r="O29">
-        <v>1087.8</v>
+        <v>901.18</v>
       </c>
       <c r="P29">
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>-81.465999999999994</v>
+        <v>-17.86</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>1981.0809999999999</v>
+        <v>1204.029</v>
       </c>
       <c r="U29">
-        <v>1033.444</v>
+        <v>557.18200000000002</v>
       </c>
       <c r="V29">
-        <v>85.36</v>
+        <v>36.514000000000003</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29">
-        <v>-136.86099999999999</v>
+        <v>-21.588000000000001</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="AA29">
-        <v>120.26300000000001</v>
+        <v>74.319999999999993</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>166.96700000000001</v>
+        <v>70.057000000000002</v>
       </c>
       <c r="D30">
-        <v>1901.3710000000001</v>
+        <v>1446.5820000000001</v>
       </c>
       <c r="E30">
-        <v>1414.741</v>
+        <v>933.51900000000001</v>
       </c>
       <c r="F30">
-        <v>259.94200000000001</v>
+        <v>155.40799999999999</v>
       </c>
       <c r="G30">
-        <v>2541.4520000000002</v>
+        <v>1534.6969999999999</v>
       </c>
       <c r="H30">
-        <v>3117.0079999999998</v>
+        <v>2069.0650000000001</v>
       </c>
       <c r="I30">
-        <v>866.30499999999995</v>
+        <v>613.10799999999995</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -3096,81 +3216,81 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>1093.1189999999999</v>
+        <v>769.75300000000004</v>
       </c>
       <c r="O30">
-        <v>1122.635</v>
+        <v>825.28599999999994</v>
       </c>
       <c r="P30">
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>17.655000000000001</v>
+        <v>17.417000000000002</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>16500</v>
+        <v>12310</v>
       </c>
       <c r="T30">
-        <v>1994.373</v>
+        <v>1243.779</v>
       </c>
       <c r="U30">
-        <v>1051.0989999999999</v>
+        <v>574.59900000000005</v>
       </c>
       <c r="V30">
-        <v>126.386</v>
+        <v>73.06</v>
       </c>
       <c r="W30">
-        <v>-74.769000000000005</v>
+        <v>-29.846</v>
       </c>
       <c r="X30">
-        <v>-170.88399999999999</v>
+        <v>-43.451000000000001</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>-0.19800000000000001</v>
       </c>
       <c r="AA30">
-        <v>166.96700000000001</v>
+        <v>70.057000000000002</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>135.69200000000001</v>
+        <v>66.471999999999994</v>
       </c>
       <c r="D31">
-        <v>1854.2619999999999</v>
+        <v>1307.3209999999999</v>
       </c>
       <c r="E31">
-        <v>1326.1679999999999</v>
+        <v>878.19100000000003</v>
       </c>
       <c r="F31">
-        <v>259.02999999999997</v>
+        <v>149.078</v>
       </c>
       <c r="G31">
-        <v>2638.0909999999999</v>
+        <v>1646.0650000000001</v>
       </c>
       <c r="H31">
-        <v>3212.4810000000002</v>
+        <v>2183.703</v>
       </c>
       <c r="I31">
-        <v>812.2</v>
+        <v>615.79999999999995</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>0.748</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -3179,75 +3299,75 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>1198.8810000000001</v>
+        <v>798.95799999999997</v>
       </c>
       <c r="O31">
-        <v>1230.2149999999999</v>
+        <v>866.524</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>0.748</v>
       </c>
       <c r="Q31">
-        <v>81.802000000000007</v>
+        <v>166.36699999999999</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>1982.2660000000001</v>
+        <v>1317.1790000000001</v>
       </c>
       <c r="U31">
-        <v>1132.9010000000001</v>
+        <v>740.96600000000001</v>
       </c>
       <c r="V31">
-        <v>235.477</v>
+        <v>178.70500000000001</v>
       </c>
       <c r="W31">
         <v>0</v>
       </c>
       <c r="X31">
-        <v>-145.96299999999999</v>
+        <v>-11.795</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>4.7E-2</v>
       </c>
       <c r="AA31">
-        <v>135.69200000000001</v>
+        <v>66.471999999999994</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>140.60499999999999</v>
+        <v>71.248999999999995</v>
       </c>
       <c r="D32">
-        <v>1957.559</v>
+        <v>1454.2550000000001</v>
       </c>
       <c r="E32">
-        <v>1337.7159999999999</v>
+        <v>982.72500000000002</v>
       </c>
       <c r="F32">
-        <v>253.52699999999999</v>
+        <v>162.416</v>
       </c>
       <c r="G32">
-        <v>2564.1410000000001</v>
+        <v>1747.9639999999999</v>
       </c>
       <c r="H32">
-        <v>3132.8319999999999</v>
+        <v>2289.7040000000002</v>
       </c>
       <c r="I32">
-        <v>832.01099999999997</v>
+        <v>682.40899999999999</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -3256,81 +3376,81 @@
         <v>0</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>-0.81</v>
       </c>
       <c r="M32">
         <v>0</v>
       </c>
       <c r="N32">
-        <v>1240.2729999999999</v>
+        <v>872.17899999999997</v>
       </c>
       <c r="O32">
-        <v>1240.2729999999999</v>
+        <v>949.10199999999998</v>
       </c>
       <c r="P32">
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>-112.047</v>
+        <v>-37.478000000000002</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>1892.559</v>
+        <v>1340.6020000000001</v>
       </c>
       <c r="U32">
-        <v>1020.854</v>
+        <v>703.48800000000006</v>
       </c>
       <c r="V32">
-        <v>148.55600000000001</v>
+        <v>36.003</v>
       </c>
       <c r="W32">
-        <v>-79.180000000000007</v>
+        <v>-34.162999999999997</v>
       </c>
       <c r="X32">
-        <v>-222.60400000000001</v>
+        <v>-62.517000000000003</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>0</v>
+        <v>0.16900000000000001</v>
       </c>
       <c r="AA32">
-        <v>140.60499999999999</v>
+        <v>71.248999999999995</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>162.69200000000001</v>
+        <v>85.564999999999998</v>
       </c>
       <c r="D33">
-        <v>2090.9470000000001</v>
+        <v>1564.913</v>
       </c>
       <c r="E33">
-        <v>1528.5239999999999</v>
+        <v>995.10699999999997</v>
       </c>
       <c r="F33">
-        <v>271.53500000000003</v>
+        <v>184.589</v>
       </c>
       <c r="G33">
-        <v>2746.473</v>
+        <v>1734.3389999999999</v>
       </c>
       <c r="H33">
-        <v>3334.8</v>
+        <v>2270.337</v>
       </c>
       <c r="I33">
-        <v>934.50900000000001</v>
+        <v>667.10400000000004</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -3345,75 +3465,75 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>1377.4680000000001</v>
+        <v>852.26700000000005</v>
       </c>
       <c r="O33">
-        <v>1377.4680000000001</v>
+        <v>913.58399999999995</v>
       </c>
       <c r="P33">
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>-30.242000000000001</v>
+        <v>-7.1390000000000002</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>1957.3320000000001</v>
+        <v>1356.7529999999999</v>
       </c>
       <c r="U33">
-        <v>990.61199999999997</v>
+        <v>696.34900000000005</v>
       </c>
       <c r="V33">
-        <v>86.721000000000004</v>
+        <v>91.677999999999997</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33">
-        <v>-101.268</v>
+        <v>-48.88</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>-6.0000000000000001E-3</v>
       </c>
       <c r="AA33">
-        <v>162.69200000000001</v>
+        <v>85.564999999999998</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>179.21</v>
+        <v>77.727999999999994</v>
       </c>
       <c r="D34">
-        <v>2235.5970000000002</v>
+        <v>1307.3889999999999</v>
       </c>
       <c r="E34">
-        <v>1581.53</v>
+        <v>788.17600000000004</v>
       </c>
       <c r="F34">
-        <v>290.209</v>
+        <v>166.34800000000001</v>
       </c>
       <c r="G34">
-        <v>2734.8159999999998</v>
+        <v>1573.3589999999999</v>
       </c>
       <c r="H34">
-        <v>3314.5590000000002</v>
+        <v>2100.8389999999999</v>
       </c>
       <c r="I34">
-        <v>902.25900000000001</v>
+        <v>491.82299999999998</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -3428,75 +3548,75 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>1326.8389999999999</v>
+        <v>670.34900000000005</v>
       </c>
       <c r="O34">
-        <v>1326.8389999999999</v>
+        <v>716.923</v>
       </c>
       <c r="P34">
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>-66.876999999999995</v>
+        <v>44.679000000000002</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>17400</v>
+        <v>12580</v>
       </c>
       <c r="T34">
-        <v>1987.72</v>
+        <v>1383.9159999999999</v>
       </c>
       <c r="U34">
-        <v>923.73500000000001</v>
+        <v>741.02800000000002</v>
       </c>
       <c r="V34">
-        <v>102.05</v>
+        <v>102.58</v>
       </c>
       <c r="W34">
-        <v>-77.66</v>
+        <v>-33.942</v>
       </c>
       <c r="X34">
-        <v>-157.90299999999999</v>
+        <v>-37.554000000000002</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>-0.28199999999999997</v>
       </c>
       <c r="AA34">
-        <v>179.21</v>
+        <v>77.727999999999994</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>139.69900000000001</v>
+        <v>59.26</v>
       </c>
       <c r="D35">
-        <v>2020.0509999999999</v>
+        <v>912.68499999999995</v>
       </c>
       <c r="E35">
-        <v>1353.7249999999999</v>
+        <v>613.28300000000002</v>
       </c>
       <c r="F35">
-        <v>255.68100000000001</v>
+        <v>130.58199999999999</v>
       </c>
       <c r="G35">
-        <v>2728.9940000000001</v>
+        <v>1531.2719999999999</v>
       </c>
       <c r="H35">
-        <v>3642.9119999999998</v>
+        <v>2054.8220000000001</v>
       </c>
       <c r="I35">
-        <v>768.66499999999996</v>
+        <v>407.02100000000002</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -3511,75 +3631,75 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>1227.9269999999999</v>
+        <v>584.63099999999997</v>
       </c>
       <c r="O35">
-        <v>1517.4780000000001</v>
+        <v>632.28800000000001</v>
       </c>
       <c r="P35">
-        <v>348.18599999999998</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>265.69400000000002</v>
+        <v>142.65100000000001</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>2125.4340000000002</v>
+        <v>1422.5340000000001</v>
       </c>
       <c r="U35">
-        <v>1189.4290000000001</v>
+        <v>883.67899999999997</v>
       </c>
       <c r="V35">
-        <v>289.483</v>
+        <v>172.28200000000001</v>
       </c>
       <c r="W35">
         <v>0</v>
       </c>
       <c r="X35">
-        <v>-17.143999999999998</v>
+        <v>-9.7360000000000007</v>
       </c>
       <c r="Y35">
-        <v>289.55099999999999</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>0</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="AA35">
-        <v>139.69900000000001</v>
+        <v>59.26</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>153.149</v>
+        <v>54.07</v>
       </c>
       <c r="D36">
-        <v>2035.579</v>
+        <v>895.36</v>
       </c>
       <c r="E36">
-        <v>1382.07</v>
+        <v>577.30200000000002</v>
       </c>
       <c r="F36">
-        <v>264.447</v>
+        <v>122.52800000000001</v>
       </c>
       <c r="G36">
-        <v>2711.46</v>
+        <v>1534.9079999999999</v>
       </c>
       <c r="H36">
-        <v>3646.99</v>
+        <v>2073.944</v>
       </c>
       <c r="I36">
-        <v>811.14400000000001</v>
+        <v>397.73500000000001</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -3594,75 +3714,75 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>1278.82</v>
+        <v>573.72799999999995</v>
       </c>
       <c r="O36">
-        <v>1594.596</v>
+        <v>619.26099999999997</v>
       </c>
       <c r="P36">
-        <v>377.04300000000001</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>-106.779</v>
+        <v>32.302999999999997</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>2052.3939999999998</v>
+        <v>1454.683</v>
       </c>
       <c r="U36">
-        <v>1082.6500000000001</v>
+        <v>915.98199999999997</v>
       </c>
       <c r="V36">
-        <v>155.70699999999999</v>
+        <v>85.085999999999999</v>
       </c>
       <c r="W36">
-        <v>-85.183999999999997</v>
+        <v>-40.276000000000003</v>
       </c>
       <c r="X36">
-        <v>-250.16</v>
+        <v>-53.094999999999999</v>
       </c>
       <c r="Y36">
-        <v>315.77600000000001</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>0</v>
+        <v>-1.2999999999999999E-2</v>
       </c>
       <c r="AA36">
-        <v>153.149</v>
+        <v>54.07</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>160.221</v>
+        <v>57.752000000000002</v>
       </c>
       <c r="D37">
-        <v>2074.855</v>
+        <v>1037.327</v>
       </c>
       <c r="E37">
-        <v>1319.0319999999999</v>
+        <v>684.24800000000005</v>
       </c>
       <c r="F37">
-        <v>276.03800000000001</v>
+        <v>133.58600000000001</v>
       </c>
       <c r="G37">
-        <v>2769.2130000000002</v>
+        <v>1676.52</v>
       </c>
       <c r="H37">
-        <v>3706.453</v>
+        <v>2216.8870000000002</v>
       </c>
       <c r="I37">
-        <v>744.00199999999995</v>
+        <v>486.66300000000001</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -3677,75 +3797,75 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>1183.586</v>
+        <v>655.13599999999997</v>
       </c>
       <c r="O37">
-        <v>1497.1659999999999</v>
+        <v>696.93200000000002</v>
       </c>
       <c r="P37">
-        <v>375.42200000000003</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>133.32</v>
+        <v>31.286999999999999</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>2209.2869999999998</v>
+        <v>1519.9549999999999</v>
       </c>
       <c r="U37">
-        <v>1215.97</v>
+        <v>947.26900000000001</v>
       </c>
       <c r="V37">
-        <v>161.499</v>
+        <v>42.462000000000003</v>
       </c>
       <c r="W37">
         <v>0</v>
       </c>
       <c r="X37">
-        <v>-1.286</v>
+        <v>-9.7590000000000003</v>
       </c>
       <c r="Y37">
-        <v>313.58</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="AA37">
-        <v>160.221</v>
+        <v>57.752000000000002</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>137.32599999999999</v>
+        <v>69.135000000000005</v>
       </c>
       <c r="D38">
-        <v>2044.941</v>
+        <v>1246.9110000000001</v>
       </c>
       <c r="E38">
-        <v>1315.0909999999999</v>
+        <v>810.36900000000003</v>
       </c>
       <c r="F38">
-        <v>251.80500000000001</v>
+        <v>147.55199999999999</v>
       </c>
       <c r="G38">
-        <v>2769.9229999999998</v>
+        <v>1787.83</v>
       </c>
       <c r="H38">
-        <v>3691.884</v>
+        <v>2323.7220000000002</v>
       </c>
       <c r="I38">
-        <v>735.69500000000005</v>
+        <v>546.67499999999995</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -3760,75 +3880,75 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>1168.318</v>
+        <v>708.38599999999997</v>
       </c>
       <c r="O38">
-        <v>1494.665</v>
+        <v>762.375</v>
       </c>
       <c r="P38">
-        <v>391.714</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>14.521000000000001</v>
+        <v>-21.34</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>18000</v>
+        <v>12010</v>
       </c>
       <c r="T38">
-        <v>2197.2190000000001</v>
+        <v>1561.347</v>
       </c>
       <c r="U38">
-        <v>1230.491</v>
+        <v>925.92899999999997</v>
       </c>
       <c r="V38">
-        <v>165.24600000000001</v>
+        <v>30.97</v>
       </c>
       <c r="W38">
-        <v>-85.369</v>
+        <v>-40.279000000000003</v>
       </c>
       <c r="X38">
-        <v>-149.452</v>
+        <v>-44.758000000000003</v>
       </c>
       <c r="Y38">
-        <v>326.34699999999998</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>0</v>
+        <v>-2.1999999999999999E-2</v>
       </c>
       <c r="AA38">
-        <v>137.32599999999999</v>
+        <v>69.135000000000005</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>122.34399999999999</v>
+        <v>61.247</v>
       </c>
       <c r="D39">
-        <v>1901.864</v>
+        <v>1201.1089999999999</v>
       </c>
       <c r="E39">
-        <v>1268.798</v>
+        <v>817.93600000000004</v>
       </c>
       <c r="F39">
-        <v>230.572</v>
+        <v>142.74799999999999</v>
       </c>
       <c r="G39">
-        <v>2618.817</v>
+        <v>1892.9490000000001</v>
       </c>
       <c r="H39">
-        <v>3509.9670000000001</v>
+        <v>2422.0790000000002</v>
       </c>
       <c r="I39">
-        <v>700.94399999999996</v>
+        <v>567.88499999999999</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -3843,75 +3963,75 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>1159.1780000000001</v>
+        <v>748.43700000000001</v>
       </c>
       <c r="O39">
-        <v>1472.8219999999999</v>
+        <v>793.14300000000003</v>
       </c>
       <c r="P39">
-        <v>377.392</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>-118.518</v>
+        <v>115.71899999999999</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>2037.145</v>
+        <v>1628.9359999999999</v>
       </c>
       <c r="U39">
-        <v>1111.973</v>
+        <v>1041.6479999999999</v>
       </c>
       <c r="V39">
-        <v>165</v>
+        <v>127.123</v>
       </c>
       <c r="W39">
         <v>0</v>
       </c>
       <c r="X39">
-        <v>-261.23700000000002</v>
+        <v>-1.7869999999999999</v>
       </c>
       <c r="Y39">
-        <v>313.64400000000001</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>0</v>
+        <v>-3.5999999999999997E-2</v>
       </c>
       <c r="AA39">
-        <v>122.34399999999999</v>
+        <v>61.247</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>183.869</v>
+        <v>90.317999999999998</v>
       </c>
       <c r="D40">
-        <v>2580.6320000000001</v>
+        <v>1516.77</v>
       </c>
       <c r="E40">
-        <v>1460.3240000000001</v>
+        <v>1016.575</v>
       </c>
       <c r="F40">
-        <v>313.10899999999998</v>
+        <v>179.054</v>
       </c>
       <c r="G40">
-        <v>2858.2710000000002</v>
+        <v>2022.4069999999999</v>
       </c>
       <c r="H40">
-        <v>3810.1770000000001</v>
+        <v>2546.5419999999999</v>
       </c>
       <c r="I40">
-        <v>755.971</v>
+        <v>659.23699999999997</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -3926,75 +4046,75 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>1288.069</v>
+        <v>864.53599999999994</v>
       </c>
       <c r="O40">
-        <v>1648.579</v>
+        <v>911.73400000000004</v>
       </c>
       <c r="P40">
-        <v>430.25</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>68.481999999999999</v>
+        <v>-81.347999999999999</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>2161.598</v>
+        <v>1634.808</v>
       </c>
       <c r="U40">
-        <v>1180.4549999999999</v>
+        <v>960.3</v>
       </c>
       <c r="V40">
-        <v>186.721</v>
+        <v>20.545999999999999</v>
       </c>
       <c r="W40">
-        <v>-86.814999999999998</v>
+        <v>-42.396999999999998</v>
       </c>
       <c r="X40">
-        <v>-97.783000000000001</v>
+        <v>-80.918999999999997</v>
       </c>
       <c r="Y40">
-        <v>360.51</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>0</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="AA40">
-        <v>183.869</v>
+        <v>90.317999999999998</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>191.30699999999999</v>
+        <v>96.105000000000004</v>
       </c>
       <c r="D41">
-        <v>2464.797</v>
+        <v>1667.559</v>
       </c>
       <c r="E41">
-        <v>1582.424</v>
+        <v>1082.7329999999999</v>
       </c>
       <c r="F41">
-        <v>318.28199999999998</v>
+        <v>204.09100000000001</v>
       </c>
       <c r="G41">
-        <v>3409.902</v>
+        <v>2183.645</v>
       </c>
       <c r="H41">
-        <v>4358.5540000000001</v>
+        <v>2716.183</v>
       </c>
       <c r="I41">
-        <v>888.76099999999997</v>
+        <v>700.58500000000004</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>1496.7080000000001</v>
+        <v>921.26499999999999</v>
       </c>
       <c r="O41">
-        <v>1854.0809999999999</v>
+        <v>980.06500000000005</v>
       </c>
       <c r="P41">
-        <v>428.12799999999999</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>285.05500000000001</v>
+        <v>96.926000000000002</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>2504.473</v>
+        <v>1736.1179999999999</v>
       </c>
       <c r="U41">
-        <v>1465.51</v>
+        <v>1057.2260000000001</v>
       </c>
       <c r="V41">
-        <v>161.59899999999999</v>
+        <v>113.018</v>
       </c>
       <c r="W41">
         <v>0</v>
       </c>
       <c r="X41">
-        <v>121.43</v>
+        <v>-27.556999999999999</v>
       </c>
       <c r="Y41">
-        <v>357.37299999999999</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>0</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="AA41">
-        <v>191.30699999999999</v>
+        <v>96.105000000000004</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>96.501999999999995</v>
+      </c>
+      <c r="D42">
+        <v>1582.135</v>
+      </c>
+      <c r="E42">
+        <v>1003.884</v>
+      </c>
+      <c r="F42">
+        <v>195.55199999999999</v>
+      </c>
+      <c r="G42">
+        <v>2140.355</v>
+      </c>
+      <c r="H42">
+        <v>2679.1790000000001</v>
+      </c>
+      <c r="I42">
+        <v>652.16099999999994</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>861.97799999999995</v>
+      </c>
+      <c r="O42">
+        <v>931.02499999999998</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>27.239000000000001</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>12880</v>
+      </c>
+      <c r="T42">
+        <v>1748.154</v>
+      </c>
+      <c r="U42">
+        <v>1084.4649999999999</v>
+      </c>
+      <c r="V42">
+        <v>134.83099999999999</v>
+      </c>
+      <c r="W42">
+        <v>-42.475000000000001</v>
+      </c>
+      <c r="X42">
+        <v>-98.325000000000003</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="AA42">
+        <v>96.501999999999995</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>91.231999999999999</v>
+      </c>
+      <c r="D43">
+        <v>1460.848</v>
+      </c>
+      <c r="E43">
+        <v>1006.98</v>
+      </c>
+      <c r="F43">
+        <v>194.71899999999999</v>
+      </c>
+      <c r="G43">
+        <v>2280.8249999999998</v>
+      </c>
+      <c r="H43">
+        <v>2836.732</v>
+      </c>
+      <c r="I43">
+        <v>687.98800000000006</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>914.98500000000001</v>
+      </c>
+      <c r="O43">
+        <v>987.61199999999997</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>154.006</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>1849.12</v>
+      </c>
+      <c r="U43">
+        <v>1238.471</v>
+      </c>
+      <c r="V43">
+        <v>177.833</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>-9.5340000000000007</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>-8.8999999999999996E-2</v>
+      </c>
+      <c r="AA43">
+        <v>91.231999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>95</v>
+      </c>
+      <c r="D44">
+        <v>1581.3679999999999</v>
+      </c>
+      <c r="E44">
+        <v>1028.0150000000001</v>
+      </c>
+      <c r="F44">
+        <v>202.09299999999999</v>
+      </c>
+      <c r="G44">
+        <v>2313.0419999999999</v>
+      </c>
+      <c r="H44">
+        <v>2878.0039999999999</v>
+      </c>
+      <c r="I44">
+        <v>688.85400000000004</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>921.52499999999998</v>
+      </c>
+      <c r="O44">
+        <v>998.85400000000004</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>-12.641</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>1879.15</v>
+      </c>
+      <c r="U44">
+        <v>1225.83</v>
+      </c>
+      <c r="V44">
+        <v>78.057000000000002</v>
+      </c>
+      <c r="W44">
+        <v>-53.014000000000003</v>
+      </c>
+      <c r="X44">
+        <v>-80.597999999999999</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>-0.44900000000000001</v>
+      </c>
+      <c r="AA44">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>106.604</v>
+      </c>
+      <c r="D45">
+        <v>1606.3679999999999</v>
+      </c>
+      <c r="E45">
+        <v>997.70500000000004</v>
+      </c>
+      <c r="F45">
+        <v>213.982</v>
+      </c>
+      <c r="G45">
+        <v>2312.6129999999998</v>
+      </c>
+      <c r="H45">
+        <v>2883.1689999999999</v>
+      </c>
+      <c r="I45">
+        <v>655.09199999999998</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>865.50099999999998</v>
+      </c>
+      <c r="O45">
+        <v>921.11099999999999</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>34.984000000000002</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>1962.058</v>
+      </c>
+      <c r="U45">
+        <v>1260.8140000000001</v>
+      </c>
+      <c r="V45">
+        <v>93.305000000000007</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>-12.617000000000001</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>106.604</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>92.843000000000004</v>
+      </c>
+      <c r="D46">
+        <v>1501.914</v>
+      </c>
+      <c r="E46">
+        <v>934.75199999999995</v>
+      </c>
+      <c r="F46">
+        <v>207.66</v>
+      </c>
+      <c r="G46">
+        <v>2286.8829999999998</v>
+      </c>
+      <c r="H46">
+        <v>2866.8270000000002</v>
+      </c>
+      <c r="I46">
+        <v>606.62800000000004</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>796.14499999999998</v>
+      </c>
+      <c r="O46">
+        <v>856.75800000000004</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>33.542000000000002</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>13590</v>
+      </c>
+      <c r="T46">
+        <v>2010.069</v>
+      </c>
+      <c r="U46">
+        <v>1294.356</v>
+      </c>
+      <c r="V46">
+        <v>107.93600000000001</v>
+      </c>
+      <c r="W46">
+        <v>-52.997</v>
+      </c>
+      <c r="X46">
+        <v>-54.341999999999999</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>92.843000000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>76.706999999999994</v>
+      </c>
+      <c r="D47">
+        <v>1411.37</v>
+      </c>
+      <c r="E47">
+        <v>934.86599999999999</v>
+      </c>
+      <c r="F47">
+        <v>179.26300000000001</v>
+      </c>
+      <c r="G47">
+        <v>2410.1979999999999</v>
+      </c>
+      <c r="H47">
+        <v>3001.223</v>
+      </c>
+      <c r="I47">
+        <v>629.50300000000004</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>828.25699999999995</v>
+      </c>
+      <c r="O47">
+        <v>899.18899999999996</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>118.559</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>2102.0340000000001</v>
+      </c>
+      <c r="U47">
+        <v>1412.915</v>
+      </c>
+      <c r="V47">
+        <v>147.39699999999999</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>-5.5190000000000001</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>-15.78</v>
+      </c>
+      <c r="AA47">
+        <v>76.706999999999994</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>83.954999999999998</v>
+      </c>
+      <c r="D48">
+        <v>1504.952</v>
+      </c>
+      <c r="E48">
+        <v>983.13099999999997</v>
+      </c>
+      <c r="F48">
+        <v>182.87299999999999</v>
+      </c>
+      <c r="G48">
+        <v>2405.3969999999999</v>
+      </c>
+      <c r="H48">
+        <v>2992.3719999999998</v>
+      </c>
+      <c r="I48">
+        <v>672.83600000000001</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>882.89800000000002</v>
+      </c>
+      <c r="O48">
+        <v>942.31500000000005</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>-48.667999999999999</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>2050.0569999999998</v>
+      </c>
+      <c r="U48">
+        <v>1364.2470000000001</v>
+      </c>
+      <c r="V48">
+        <v>92.813999999999993</v>
+      </c>
+      <c r="W48">
+        <v>-59.357999999999997</v>
+      </c>
+      <c r="X48">
+        <v>-135.471</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>15.878</v>
+      </c>
+      <c r="AA48">
+        <v>83.954999999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>88.49</v>
+      </c>
+      <c r="D49">
+        <v>1531.664</v>
+      </c>
+      <c r="E49">
+        <v>1015.35</v>
+      </c>
+      <c r="F49">
+        <v>190.935</v>
+      </c>
+      <c r="G49">
+        <v>2439.9949999999999</v>
+      </c>
+      <c r="H49">
+        <v>3032.1869999999999</v>
+      </c>
+      <c r="I49">
+        <v>667.39499999999998</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>866.2</v>
+      </c>
+      <c r="O49">
+        <v>936.48800000000006</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>3.395</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>2095.6990000000001</v>
+      </c>
+      <c r="U49">
+        <v>1367.6420000000001</v>
+      </c>
+      <c r="V49">
+        <v>69.165999999999997</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>-63.746000000000002</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0.113</v>
+      </c>
+      <c r="AA49">
+        <v>88.49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>84.207999999999998</v>
+      </c>
+      <c r="D50">
+        <v>1544.229</v>
+      </c>
+      <c r="E50">
+        <v>1031.376</v>
+      </c>
+      <c r="F50">
+        <v>188.667</v>
+      </c>
+      <c r="G50">
+        <v>2357.5990000000002</v>
+      </c>
+      <c r="H50">
+        <v>2954.125</v>
+      </c>
+      <c r="I50">
+        <v>641.59299999999996</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>842.55799999999999</v>
+      </c>
+      <c r="O50">
+        <v>921.55499999999995</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>-106.8</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>13700</v>
+      </c>
+      <c r="T50">
+        <v>2032.57</v>
+      </c>
+      <c r="U50">
+        <v>1260.8420000000001</v>
+      </c>
+      <c r="V50">
+        <v>60.749000000000002</v>
+      </c>
+      <c r="W50">
+        <v>-57.905000000000001</v>
+      </c>
+      <c r="X50">
+        <v>-158.31100000000001</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="AA50">
+        <v>84.207999999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>80.314999999999998</v>
+      </c>
+      <c r="D51">
+        <v>1413.2080000000001</v>
+      </c>
+      <c r="E51">
+        <v>982.11900000000003</v>
+      </c>
+      <c r="F51">
+        <v>175.39699999999999</v>
+      </c>
+      <c r="G51">
+        <v>2430.826</v>
+      </c>
+      <c r="H51">
+        <v>3017.799</v>
+      </c>
+      <c r="I51">
+        <v>629.19000000000005</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>831.68</v>
+      </c>
+      <c r="O51">
+        <v>913.178</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>133.845</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>2104.6210000000001</v>
+      </c>
+      <c r="U51">
+        <v>1394.6869999999999</v>
+      </c>
+      <c r="V51">
+        <v>165.26400000000001</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>-13.382999999999999</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="AA51">
+        <v>80.314999999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>92.314999999999998</v>
+      </c>
+      <c r="D52">
+        <v>1503.2239999999999</v>
+      </c>
+      <c r="E52">
+        <v>1018.337</v>
+      </c>
+      <c r="F52">
+        <v>191.59100000000001</v>
+      </c>
+      <c r="G52">
+        <v>2475.7779999999998</v>
+      </c>
+      <c r="H52">
+        <v>3063.665</v>
+      </c>
+      <c r="I52">
+        <v>645.19600000000003</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>860.21299999999997</v>
+      </c>
+      <c r="O52">
+        <v>941.72299999999996</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>-108.578</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>2121.942</v>
+      </c>
+      <c r="U52">
+        <v>1286.1089999999999</v>
+      </c>
+      <c r="V52">
+        <v>84.025999999999996</v>
+      </c>
+      <c r="W52">
+        <v>-61.899000000000001</v>
+      </c>
+      <c r="X52">
+        <v>-75.367000000000004</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>-89.802999999999997</v>
+      </c>
+      <c r="AA52">
+        <v>92.314999999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>92.4</v>
+      </c>
+      <c r="D53">
+        <v>1537.9659999999999</v>
+      </c>
+      <c r="E53">
+        <v>1027.5719999999999</v>
+      </c>
+      <c r="F53">
+        <v>198.74700000000001</v>
+      </c>
+      <c r="G53">
+        <v>2498.2109999999998</v>
+      </c>
+      <c r="H53">
+        <v>3098.5630000000001</v>
+      </c>
+      <c r="I53">
+        <v>656.67399999999998</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>863.97900000000004</v>
+      </c>
+      <c r="O53">
+        <v>917.83299999999997</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>24.221</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>2180.73</v>
+      </c>
+      <c r="U53">
+        <v>1310.33</v>
+      </c>
+      <c r="V53">
+        <v>96.293000000000006</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>-53.470999999999997</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>-9.9250000000000007</v>
+      </c>
+      <c r="AA53">
+        <v>92.4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>83.495999999999995</v>
+      </c>
+      <c r="D54">
+        <v>1625.8589999999999</v>
+      </c>
+      <c r="E54">
+        <v>1073.5</v>
+      </c>
+      <c r="F54">
+        <v>186.08</v>
+      </c>
+      <c r="G54">
+        <v>2415.2689999999998</v>
+      </c>
+      <c r="H54">
+        <v>3014.8119999999999</v>
+      </c>
+      <c r="I54">
+        <v>648.15599999999995</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>870.2</v>
+      </c>
+      <c r="O54">
+        <v>928.48099999999999</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>-62.677999999999997</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>13910</v>
+      </c>
+      <c r="T54">
+        <v>2086.3310000000001</v>
+      </c>
+      <c r="U54">
+        <v>1247.652</v>
+      </c>
+      <c r="V54">
+        <v>61.953000000000003</v>
+      </c>
+      <c r="W54">
+        <v>-61.393000000000001</v>
+      </c>
+      <c r="X54">
+        <v>-189.80699999999999</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>73.489000000000004</v>
+      </c>
+      <c r="AA54">
+        <v>83.495999999999995</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>83.823999999999998</v>
+      </c>
+      <c r="D55">
+        <v>1491.645</v>
+      </c>
+      <c r="E55">
+        <v>1062.924</v>
+      </c>
+      <c r="F55">
+        <v>183.482</v>
+      </c>
+      <c r="G55">
+        <v>2334.9929999999999</v>
+      </c>
+      <c r="H55">
+        <v>2925.5039999999999</v>
+      </c>
+      <c r="I55">
+        <v>677.58199999999999</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>901.49300000000005</v>
+      </c>
+      <c r="O55">
+        <v>965.49</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>-116.60599999999999</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>1960.0139999999999</v>
+      </c>
+      <c r="U55">
+        <v>1131.046</v>
+      </c>
+      <c r="V55">
+        <v>173.857</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>-218.429</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>-60.154000000000003</v>
+      </c>
+      <c r="AA55">
+        <v>83.823999999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>91.302000000000007</v>
+      </c>
+      <c r="D56">
+        <v>1599.1410000000001</v>
+      </c>
+      <c r="E56">
+        <v>1150.5309999999999</v>
+      </c>
+      <c r="F56">
+        <v>198.54599999999999</v>
+      </c>
+      <c r="G56">
+        <v>2310.4699999999998</v>
+      </c>
+      <c r="H56">
+        <v>2929.94</v>
+      </c>
+      <c r="I56">
+        <v>717.14099999999996</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>962.23099999999999</v>
+      </c>
+      <c r="O56">
+        <v>1032.8030000000001</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>-160.48500000000001</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>1897.1369999999999</v>
+      </c>
+      <c r="U56">
+        <v>970.56100000000004</v>
+      </c>
+      <c r="V56">
+        <v>44.886000000000003</v>
+      </c>
+      <c r="W56">
+        <v>-62.807000000000002</v>
+      </c>
+      <c r="X56">
+        <v>-171.578</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="AA56">
+        <v>91.302000000000007</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>102.381</v>
+      </c>
+      <c r="D57">
+        <v>1705.105</v>
+      </c>
+      <c r="E57">
+        <v>1183.1669999999999</v>
+      </c>
+      <c r="F57">
+        <v>214.31200000000001</v>
+      </c>
+      <c r="G57">
+        <v>2317.9720000000002</v>
+      </c>
+      <c r="H57">
+        <v>2926.0529999999999</v>
+      </c>
+      <c r="I57">
+        <v>746.19299999999998</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>962.798</v>
+      </c>
+      <c r="O57">
+        <v>1022.123</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>19.919</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>1903.93</v>
+      </c>
+      <c r="U57">
+        <v>990.48</v>
+      </c>
+      <c r="V57">
+        <v>86.691000000000003</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>-88.545000000000002</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>45.832000000000001</v>
+      </c>
+      <c r="AA57">
+        <v>102.381</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>99.381</v>
+      </c>
+      <c r="D58">
+        <v>1768.83</v>
+      </c>
+      <c r="E58">
+        <v>1236.0419999999999</v>
+      </c>
+      <c r="F58">
+        <v>216.94800000000001</v>
+      </c>
+      <c r="G58">
+        <v>2289.25</v>
+      </c>
+      <c r="H58">
+        <v>2890.9050000000002</v>
+      </c>
+      <c r="I58">
+        <v>770.23800000000006</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>983.78300000000002</v>
+      </c>
+      <c r="O58">
+        <v>1019.297</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>-63.372999999999998</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>14670</v>
+      </c>
+      <c r="T58">
+        <v>1871.6079999999999</v>
+      </c>
+      <c r="U58">
+        <v>927.10699999999997</v>
+      </c>
+      <c r="V58">
+        <v>89.531999999999996</v>
+      </c>
+      <c r="W58">
+        <v>-61.826999999999998</v>
+      </c>
+      <c r="X58">
+        <v>-126.982</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>-0.02</v>
+      </c>
+      <c r="AA58">
+        <v>99.381</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>106.70399999999999</v>
+      </c>
+      <c r="D59">
+        <v>1677.5260000000001</v>
+      </c>
+      <c r="E59">
+        <v>1253.6389999999999</v>
+      </c>
+      <c r="F59">
+        <v>225.22</v>
+      </c>
+      <c r="G59">
+        <v>2352.16</v>
+      </c>
+      <c r="H59">
+        <v>2943.7779999999998</v>
+      </c>
+      <c r="I59">
+        <v>749.24599999999998</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>979.21900000000005</v>
+      </c>
+      <c r="O59">
+        <v>1016.247</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>106.03700000000001</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>1927.5309999999999</v>
+      </c>
+      <c r="U59">
+        <v>1033.144</v>
+      </c>
+      <c r="V59">
+        <v>134.39400000000001</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>-41.697000000000003</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>40.274000000000001</v>
+      </c>
+      <c r="AA59">
+        <v>106.70399999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>117.76</v>
+      </c>
+      <c r="D60">
+        <v>1691.5530000000001</v>
+      </c>
+      <c r="E60">
+        <v>1194.18</v>
+      </c>
+      <c r="F60">
+        <v>240.10499999999999</v>
+      </c>
+      <c r="G60">
+        <v>2334.7550000000001</v>
+      </c>
+      <c r="H60">
+        <v>2932.375</v>
+      </c>
+      <c r="I60">
+        <v>738.32299999999998</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>993.68100000000004</v>
+      </c>
+      <c r="O60">
+        <v>1042.6420000000001</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>-47.417000000000002</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>1889.7329999999999</v>
+      </c>
+      <c r="U60">
+        <v>985.72699999999998</v>
+      </c>
+      <c r="V60">
+        <v>181.72800000000001</v>
+      </c>
+      <c r="W60">
+        <v>-68.781000000000006</v>
+      </c>
+      <c r="X60">
+        <v>-171.505</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>-46.985999999999997</v>
+      </c>
+      <c r="AA60">
+        <v>117.76</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>118.31</v>
+      </c>
+      <c r="D61">
+        <v>1651.3320000000001</v>
+      </c>
+      <c r="E61">
+        <v>1166.3</v>
+      </c>
+      <c r="F61">
+        <v>248.66800000000001</v>
+      </c>
+      <c r="G61">
+        <v>2235.46</v>
+      </c>
+      <c r="H61">
+        <v>2827.018</v>
+      </c>
+      <c r="I61">
+        <v>718.55499999999995</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>955.202</v>
+      </c>
+      <c r="O61">
+        <v>984.82600000000002</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>-17.044</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>1842.192</v>
+      </c>
+      <c r="U61">
+        <v>968.68299999999999</v>
+      </c>
+      <c r="V61">
+        <v>132.67599999999999</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>-155.364</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>38.787999999999997</v>
+      </c>
+      <c r="AA61">
+        <v>118.31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>114.449</v>
+      </c>
+      <c r="D62">
+        <v>1596.221</v>
+      </c>
+      <c r="E62">
+        <v>1112.26</v>
+      </c>
+      <c r="F62">
+        <v>227.803</v>
+      </c>
+      <c r="G62">
+        <v>1976.509</v>
+      </c>
+      <c r="H62">
+        <v>2565.5770000000002</v>
+      </c>
+      <c r="I62">
+        <v>645.30399999999997</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>861.37300000000005</v>
+      </c>
+      <c r="O62">
+        <v>870.90099999999995</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>-160.887</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>15397</v>
+      </c>
+      <c r="T62">
+        <v>1694.6759999999999</v>
+      </c>
+      <c r="U62">
+        <v>807.79600000000005</v>
+      </c>
+      <c r="V62">
+        <v>115.914</v>
+      </c>
+      <c r="W62">
+        <v>-66.891999999999996</v>
+      </c>
+      <c r="X62">
+        <v>-266.40600000000001</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>8.218</v>
+      </c>
+      <c r="AA62">
+        <v>114.449</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>96.584000000000003</v>
+      </c>
+      <c r="D63">
+        <v>1418.472</v>
+      </c>
+      <c r="E63">
+        <v>1010.667</v>
+      </c>
+      <c r="F63">
+        <v>206.85499999999999</v>
+      </c>
+      <c r="G63">
+        <v>2087.48</v>
+      </c>
+      <c r="H63">
+        <v>2679.7429999999999</v>
+      </c>
+      <c r="I63">
+        <v>623.69899999999996</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>854.41499999999996</v>
+      </c>
+      <c r="O63">
+        <v>897.23199999999997</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>206.12100000000001</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>1782.511</v>
+      </c>
+      <c r="U63">
+        <v>1013.917</v>
+      </c>
+      <c r="V63">
+        <v>235.953</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>-28.657</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>96.584000000000003</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>116.05200000000001</v>
+      </c>
+      <c r="D64">
+        <v>1475.164</v>
+      </c>
+      <c r="E64">
+        <v>1051.373</v>
+      </c>
+      <c r="F64">
+        <v>232.506</v>
+      </c>
+      <c r="G64">
+        <v>2126.8449999999998</v>
+      </c>
+      <c r="H64">
+        <v>2707.1379999999999</v>
+      </c>
+      <c r="I64">
+        <v>642.05600000000004</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>894.02599999999995</v>
+      </c>
+      <c r="O64">
+        <v>927.63300000000004</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>-33.652999999999999</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>1779.5050000000001</v>
+      </c>
+      <c r="U64">
+        <v>980.26400000000001</v>
+      </c>
+      <c r="V64">
+        <v>105.184</v>
+      </c>
+      <c r="W64">
+        <v>-73</v>
+      </c>
+      <c r="X64">
+        <v>-120.627</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>116.05200000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>107.581</v>
+      </c>
+      <c r="D65">
+        <v>1562.394</v>
+      </c>
+      <c r="E65">
+        <v>1108.5160000000001</v>
+      </c>
+      <c r="F65">
+        <v>226.964</v>
+      </c>
+      <c r="G65">
+        <v>2235.6860000000001</v>
+      </c>
+      <c r="H65">
+        <v>2813.797</v>
+      </c>
+      <c r="I65">
+        <v>698.62</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>927.60400000000004</v>
+      </c>
+      <c r="O65">
+        <v>959.86400000000003</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>62.436</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>1853.933</v>
+      </c>
+      <c r="U65">
+        <v>1042.7</v>
+      </c>
+      <c r="V65">
+        <v>115.79300000000001</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>-44.167999999999999</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>107.581</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>110.59</v>
+      </c>
+      <c r="D66">
+        <v>1642.0070000000001</v>
+      </c>
+      <c r="E66">
+        <v>1190.1300000000001</v>
+      </c>
+      <c r="F66">
+        <v>231.26400000000001</v>
+      </c>
+      <c r="G66">
+        <v>2218.5790000000002</v>
+      </c>
+      <c r="H66">
+        <v>2790.8710000000001</v>
+      </c>
+      <c r="I66">
+        <v>726.57100000000003</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>929.93100000000004</v>
+      </c>
+      <c r="O66">
+        <v>943.65800000000002</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>-68.265000000000001</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>16000</v>
+      </c>
+      <c r="T66">
+        <v>1847.213</v>
+      </c>
+      <c r="U66">
+        <v>974.43499999999995</v>
+      </c>
+      <c r="V66">
+        <v>72.555000000000007</v>
+      </c>
+      <c r="W66">
+        <v>-72.123000000000005</v>
+      </c>
+      <c r="X66">
+        <v>-105.351</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>-3.6999999999999998E-2</v>
+      </c>
+      <c r="AA66">
+        <v>110.59</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>93.263999999999996</v>
+      </c>
+      <c r="D67">
+        <v>1545.1320000000001</v>
+      </c>
+      <c r="E67">
+        <v>1126.4880000000001</v>
+      </c>
+      <c r="F67">
+        <v>206.89500000000001</v>
+      </c>
+      <c r="G67">
+        <v>2401.7959999999998</v>
+      </c>
+      <c r="H67">
+        <v>2902.7190000000001</v>
+      </c>
+      <c r="I67">
+        <v>701.12199999999996</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>926.80399999999997</v>
+      </c>
+      <c r="O67">
+        <v>950.99900000000002</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>181.608</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>1951.72</v>
+      </c>
+      <c r="U67">
+        <v>1156.0429999999999</v>
+      </c>
+      <c r="V67">
+        <v>195.679</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>-8.5429999999999993</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>93.263999999999996</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>108.851</v>
+      </c>
+      <c r="D68">
+        <v>1672.279</v>
+      </c>
+      <c r="E68">
+        <v>1215.278</v>
+      </c>
+      <c r="F68">
+        <v>215.941</v>
+      </c>
+      <c r="G68">
+        <v>2494.3159999999998</v>
+      </c>
+      <c r="H68">
+        <v>3022.7559999999999</v>
+      </c>
+      <c r="I68">
+        <v>774.94100000000003</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>1007.646</v>
+      </c>
+      <c r="O68">
+        <v>1044.1189999999999</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>-41.133000000000003</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>1978.6369999999999</v>
+      </c>
+      <c r="U68">
+        <v>1114.9100000000001</v>
+      </c>
+      <c r="V68">
+        <v>81.213999999999999</v>
+      </c>
+      <c r="W68">
+        <v>-75.725999999999999</v>
+      </c>
+      <c r="X68">
+        <v>-108.277</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>108.851</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>120.26300000000001</v>
+      </c>
+      <c r="D69">
+        <v>1802.1659999999999</v>
+      </c>
+      <c r="E69">
+        <v>1349.854</v>
+      </c>
+      <c r="F69">
+        <v>249.559</v>
+      </c>
+      <c r="G69">
+        <v>2518.9209999999998</v>
+      </c>
+      <c r="H69">
+        <v>3068.8809999999999</v>
+      </c>
+      <c r="I69">
+        <v>836.05499999999995</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>1076.0540000000001</v>
+      </c>
+      <c r="O69">
+        <v>1087.8</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>-81.465999999999994</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>1981.0809999999999</v>
+      </c>
+      <c r="U69">
+        <v>1033.444</v>
+      </c>
+      <c r="V69">
+        <v>85.36</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>-136.86099999999999</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>120.26300000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>166.96700000000001</v>
+      </c>
+      <c r="D70">
+        <v>1901.3710000000001</v>
+      </c>
+      <c r="E70">
+        <v>1414.741</v>
+      </c>
+      <c r="F70">
+        <v>259.94200000000001</v>
+      </c>
+      <c r="G70">
+        <v>2541.4520000000002</v>
+      </c>
+      <c r="H70">
+        <v>3117.0079999999998</v>
+      </c>
+      <c r="I70">
+        <v>866.30499999999995</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>1093.1189999999999</v>
+      </c>
+      <c r="O70">
+        <v>1122.635</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>17.655000000000001</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>16500</v>
+      </c>
+      <c r="T70">
+        <v>1994.373</v>
+      </c>
+      <c r="U70">
+        <v>1051.0989999999999</v>
+      </c>
+      <c r="V70">
+        <v>126.386</v>
+      </c>
+      <c r="W70">
+        <v>-74.769000000000005</v>
+      </c>
+      <c r="X70">
+        <v>-170.88399999999999</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>166.96700000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>135.69200000000001</v>
+      </c>
+      <c r="D71">
+        <v>1854.2619999999999</v>
+      </c>
+      <c r="E71">
+        <v>1326.1679999999999</v>
+      </c>
+      <c r="F71">
+        <v>259.02999999999997</v>
+      </c>
+      <c r="G71">
+        <v>2638.0909999999999</v>
+      </c>
+      <c r="H71">
+        <v>3212.4810000000002</v>
+      </c>
+      <c r="I71">
+        <v>812.2</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>1198.8810000000001</v>
+      </c>
+      <c r="O71">
+        <v>1230.2149999999999</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>81.802000000000007</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>1982.2660000000001</v>
+      </c>
+      <c r="U71">
+        <v>1132.9010000000001</v>
+      </c>
+      <c r="V71">
+        <v>235.477</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>-145.96299999999999</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>135.69200000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>140.60499999999999</v>
+      </c>
+      <c r="D72">
+        <v>1957.559</v>
+      </c>
+      <c r="E72">
+        <v>1337.7159999999999</v>
+      </c>
+      <c r="F72">
+        <v>253.52699999999999</v>
+      </c>
+      <c r="G72">
+        <v>2564.1410000000001</v>
+      </c>
+      <c r="H72">
+        <v>3132.8319999999999</v>
+      </c>
+      <c r="I72">
+        <v>832.01099999999997</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>1240.2729999999999</v>
+      </c>
+      <c r="O72">
+        <v>1240.2729999999999</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>-112.047</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>1892.559</v>
+      </c>
+      <c r="U72">
+        <v>1020.854</v>
+      </c>
+      <c r="V72">
+        <v>148.55600000000001</v>
+      </c>
+      <c r="W72">
+        <v>-79.180000000000007</v>
+      </c>
+      <c r="X72">
+        <v>-222.60400000000001</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>140.60499999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>162.69200000000001</v>
+      </c>
+      <c r="D73">
+        <v>2090.9470000000001</v>
+      </c>
+      <c r="E73">
+        <v>1528.5239999999999</v>
+      </c>
+      <c r="F73">
+        <v>271.53500000000003</v>
+      </c>
+      <c r="G73">
+        <v>2746.473</v>
+      </c>
+      <c r="H73">
+        <v>3334.8</v>
+      </c>
+      <c r="I73">
+        <v>934.50900000000001</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>1377.4680000000001</v>
+      </c>
+      <c r="O73">
+        <v>1377.4680000000001</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>-30.242000000000001</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>1957.3320000000001</v>
+      </c>
+      <c r="U73">
+        <v>990.61199999999997</v>
+      </c>
+      <c r="V73">
+        <v>86.721000000000004</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>-101.268</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>162.69200000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>179.21</v>
+      </c>
+      <c r="D74">
+        <v>2235.5970000000002</v>
+      </c>
+      <c r="E74">
+        <v>1581.53</v>
+      </c>
+      <c r="F74">
+        <v>290.209</v>
+      </c>
+      <c r="G74">
+        <v>2734.8159999999998</v>
+      </c>
+      <c r="H74">
+        <v>3314.5590000000002</v>
+      </c>
+      <c r="I74">
+        <v>902.25900000000001</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>1326.8389999999999</v>
+      </c>
+      <c r="O74">
+        <v>1326.8389999999999</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>-66.876999999999995</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>17400</v>
+      </c>
+      <c r="T74">
+        <v>1987.72</v>
+      </c>
+      <c r="U74">
+        <v>923.73500000000001</v>
+      </c>
+      <c r="V74">
+        <v>102.05</v>
+      </c>
+      <c r="W74">
+        <v>-77.66</v>
+      </c>
+      <c r="X74">
+        <v>-157.90299999999999</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>179.21</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>139.69900000000001</v>
+      </c>
+      <c r="D75">
+        <v>2020.0509999999999</v>
+      </c>
+      <c r="E75">
+        <v>1353.7249999999999</v>
+      </c>
+      <c r="F75">
+        <v>255.68100000000001</v>
+      </c>
+      <c r="G75">
+        <v>2728.9940000000001</v>
+      </c>
+      <c r="H75">
+        <v>3642.9119999999998</v>
+      </c>
+      <c r="I75">
+        <v>768.66499999999996</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>1227.9269999999999</v>
+      </c>
+      <c r="O75">
+        <v>1517.4780000000001</v>
+      </c>
+      <c r="P75">
+        <v>348.18599999999998</v>
+      </c>
+      <c r="Q75">
+        <v>265.69400000000002</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>2125.4340000000002</v>
+      </c>
+      <c r="U75">
+        <v>1189.4290000000001</v>
+      </c>
+      <c r="V75">
+        <v>289.483</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>-17.143999999999998</v>
+      </c>
+      <c r="Y75">
+        <v>289.55099999999999</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>139.69900000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>153.149</v>
+      </c>
+      <c r="D76">
+        <v>2035.579</v>
+      </c>
+      <c r="E76">
+        <v>1382.07</v>
+      </c>
+      <c r="F76">
+        <v>264.447</v>
+      </c>
+      <c r="G76">
+        <v>2711.46</v>
+      </c>
+      <c r="H76">
+        <v>3646.99</v>
+      </c>
+      <c r="I76">
+        <v>811.14400000000001</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>1278.82</v>
+      </c>
+      <c r="O76">
+        <v>1594.596</v>
+      </c>
+      <c r="P76">
+        <v>377.04300000000001</v>
+      </c>
+      <c r="Q76">
+        <v>-106.779</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>2052.3939999999998</v>
+      </c>
+      <c r="U76">
+        <v>1082.6500000000001</v>
+      </c>
+      <c r="V76">
+        <v>155.70699999999999</v>
+      </c>
+      <c r="W76">
+        <v>-85.183999999999997</v>
+      </c>
+      <c r="X76">
+        <v>-250.16</v>
+      </c>
+      <c r="Y76">
+        <v>315.77600000000001</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>153.149</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>160.221</v>
+      </c>
+      <c r="D77">
+        <v>2074.855</v>
+      </c>
+      <c r="E77">
+        <v>1319.0319999999999</v>
+      </c>
+      <c r="F77">
+        <v>276.03800000000001</v>
+      </c>
+      <c r="G77">
+        <v>2769.2130000000002</v>
+      </c>
+      <c r="H77">
+        <v>3706.453</v>
+      </c>
+      <c r="I77">
+        <v>744.00199999999995</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>1183.586</v>
+      </c>
+      <c r="O77">
+        <v>1497.1659999999999</v>
+      </c>
+      <c r="P77">
+        <v>375.42200000000003</v>
+      </c>
+      <c r="Q77">
+        <v>133.32</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>2209.2869999999998</v>
+      </c>
+      <c r="U77">
+        <v>1215.97</v>
+      </c>
+      <c r="V77">
+        <v>161.499</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>-1.286</v>
+      </c>
+      <c r="Y77">
+        <v>313.58</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>160.221</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>137.32599999999999</v>
+      </c>
+      <c r="D78">
+        <v>2044.941</v>
+      </c>
+      <c r="E78">
+        <v>1315.0909999999999</v>
+      </c>
+      <c r="F78">
+        <v>251.80500000000001</v>
+      </c>
+      <c r="G78">
+        <v>2769.9229999999998</v>
+      </c>
+      <c r="H78">
+        <v>3691.884</v>
+      </c>
+      <c r="I78">
+        <v>735.69500000000005</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>1168.318</v>
+      </c>
+      <c r="O78">
+        <v>1494.665</v>
+      </c>
+      <c r="P78">
+        <v>391.714</v>
+      </c>
+      <c r="Q78">
+        <v>14.521000000000001</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>18000</v>
+      </c>
+      <c r="T78">
+        <v>2197.2190000000001</v>
+      </c>
+      <c r="U78">
+        <v>1230.491</v>
+      </c>
+      <c r="V78">
+        <v>165.24600000000001</v>
+      </c>
+      <c r="W78">
+        <v>-85.369</v>
+      </c>
+      <c r="X78">
+        <v>-149.452</v>
+      </c>
+      <c r="Y78">
+        <v>326.34699999999998</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>137.32599999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>122.34399999999999</v>
+      </c>
+      <c r="D79">
+        <v>1901.864</v>
+      </c>
+      <c r="E79">
+        <v>1268.798</v>
+      </c>
+      <c r="F79">
+        <v>230.572</v>
+      </c>
+      <c r="G79">
+        <v>2618.817</v>
+      </c>
+      <c r="H79">
+        <v>3509.9670000000001</v>
+      </c>
+      <c r="I79">
+        <v>700.94399999999996</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>1159.1780000000001</v>
+      </c>
+      <c r="O79">
+        <v>1472.8219999999999</v>
+      </c>
+      <c r="P79">
+        <v>377.392</v>
+      </c>
+      <c r="Q79">
+        <v>-118.518</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>2037.145</v>
+      </c>
+      <c r="U79">
+        <v>1111.973</v>
+      </c>
+      <c r="V79">
+        <v>165</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>-261.23700000000002</v>
+      </c>
+      <c r="Y79">
+        <v>313.64400000000001</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>122.34399999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>183.869</v>
+      </c>
+      <c r="D80">
+        <v>2580.6320000000001</v>
+      </c>
+      <c r="E80">
+        <v>1460.3240000000001</v>
+      </c>
+      <c r="F80">
+        <v>313.10899999999998</v>
+      </c>
+      <c r="G80">
+        <v>2858.2710000000002</v>
+      </c>
+      <c r="H80">
+        <v>3810.1770000000001</v>
+      </c>
+      <c r="I80">
+        <v>755.971</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>1288.069</v>
+      </c>
+      <c r="O80">
+        <v>1648.579</v>
+      </c>
+      <c r="P80">
+        <v>430.25</v>
+      </c>
+      <c r="Q80">
+        <v>68.481999999999999</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>2161.598</v>
+      </c>
+      <c r="U80">
+        <v>1180.4549999999999</v>
+      </c>
+      <c r="V80">
+        <v>186.721</v>
+      </c>
+      <c r="W80">
+        <v>-86.814999999999998</v>
+      </c>
+      <c r="X80">
+        <v>-97.783000000000001</v>
+      </c>
+      <c r="Y80">
+        <v>360.51</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>183.869</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>191.30699999999999</v>
+      </c>
+      <c r="D81">
+        <v>2464.797</v>
+      </c>
+      <c r="E81">
+        <v>1582.424</v>
+      </c>
+      <c r="F81">
+        <v>318.28199999999998</v>
+      </c>
+      <c r="G81">
+        <v>3409.902</v>
+      </c>
+      <c r="H81">
+        <v>4358.5540000000001</v>
+      </c>
+      <c r="I81">
+        <v>888.76099999999997</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>1496.7080000000001</v>
+      </c>
+      <c r="O81">
+        <v>1854.0809999999999</v>
+      </c>
+      <c r="P81">
+        <v>428.12799999999999</v>
+      </c>
+      <c r="Q81">
+        <v>285.05500000000001</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>2504.473</v>
+      </c>
+      <c r="U81">
+        <v>1465.51</v>
+      </c>
+      <c r="V81">
+        <v>161.59899999999999</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>121.43</v>
+      </c>
+      <c r="Y81">
+        <v>357.37299999999999</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>191.30699999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>198.62</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>3169.1880000000001</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>1998.0550000000001</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>357.76100000000002</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>3963.5439999999999</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>4927.5029999999997</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>1136.8589999999999</v>
       </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>1893.0429999999999</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>2264.2759999999998</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>438.18900000000002</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>62.280999999999999</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>17480</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>2663.2269999999999</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>1527.7909999999999</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>141.69200000000001</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-88.114000000000004</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-93.947000000000003</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>364.185</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
         <v>198.62</v>
       </c>
     </row>
